--- a/01_Planung/01_Dokumente/Zeitplan.xlsx
+++ b/01_Planung/01_Dokumente/Zeitplan.xlsx
@@ -128,8 +128,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -245,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,17 +307,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -492,94 +496,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42081</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42082</c:v>
+                  <c:v>42095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42083</c:v>
+                  <c:v>42096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42084</c:v>
+                  <c:v>42097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42085</c:v>
+                  <c:v>42098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42086</c:v>
+                  <c:v>42099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42087</c:v>
+                  <c:v>42100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42088</c:v>
+                  <c:v>42101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42089</c:v>
+                  <c:v>42102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42090</c:v>
+                  <c:v>42103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42091</c:v>
+                  <c:v>42104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42092</c:v>
+                  <c:v>42105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42093</c:v>
+                  <c:v>42106</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42094</c:v>
+                  <c:v>42107</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42095</c:v>
+                  <c:v>42108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42096</c:v>
+                  <c:v>42109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42097</c:v>
+                  <c:v>42110</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42098</c:v>
+                  <c:v>42111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42099</c:v>
+                  <c:v>42112</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42100</c:v>
+                  <c:v>42113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42101</c:v>
+                  <c:v>42114</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42102</c:v>
+                  <c:v>42115</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42103</c:v>
+                  <c:v>42116</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42104</c:v>
+                  <c:v>42117</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42105</c:v>
+                  <c:v>42118</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42106</c:v>
+                  <c:v>42119</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42107</c:v>
+                  <c:v>42120</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42108</c:v>
+                  <c:v>42121</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42109</c:v>
+                  <c:v>42122</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42110</c:v>
+                  <c:v>42123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,94 +887,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42081</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42082</c:v>
+                  <c:v>42095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42083</c:v>
+                  <c:v>42096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42084</c:v>
+                  <c:v>42097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42085</c:v>
+                  <c:v>42098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42086</c:v>
+                  <c:v>42099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42087</c:v>
+                  <c:v>42100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42088</c:v>
+                  <c:v>42101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42089</c:v>
+                  <c:v>42102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42090</c:v>
+                  <c:v>42103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42091</c:v>
+                  <c:v>42104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42092</c:v>
+                  <c:v>42105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42093</c:v>
+                  <c:v>42106</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42094</c:v>
+                  <c:v>42107</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42095</c:v>
+                  <c:v>42108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42096</c:v>
+                  <c:v>42109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42097</c:v>
+                  <c:v>42110</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42098</c:v>
+                  <c:v>42111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42099</c:v>
+                  <c:v>42112</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42100</c:v>
+                  <c:v>42113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42101</c:v>
+                  <c:v>42114</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42102</c:v>
+                  <c:v>42115</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42103</c:v>
+                  <c:v>42116</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42104</c:v>
+                  <c:v>42117</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42105</c:v>
+                  <c:v>42118</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42106</c:v>
+                  <c:v>42119</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42107</c:v>
+                  <c:v>42120</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42108</c:v>
+                  <c:v>42121</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42109</c:v>
+                  <c:v>42122</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42110</c:v>
+                  <c:v>42123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +986,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1085,7 +1089,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>USECASE BESCHRIEB</c:v>
+                  <c:v>#NV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1134,7 +1138,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>10.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1274,94 +1278,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42081</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42082</c:v>
+                  <c:v>42095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42083</c:v>
+                  <c:v>42096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42084</c:v>
+                  <c:v>42097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42085</c:v>
+                  <c:v>42098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42086</c:v>
+                  <c:v>42099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42087</c:v>
+                  <c:v>42100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42088</c:v>
+                  <c:v>42101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42089</c:v>
+                  <c:v>42102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42090</c:v>
+                  <c:v>42103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42091</c:v>
+                  <c:v>42104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42092</c:v>
+                  <c:v>42105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42093</c:v>
+                  <c:v>42106</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42094</c:v>
+                  <c:v>42107</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42095</c:v>
+                  <c:v>42108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42096</c:v>
+                  <c:v>42109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42097</c:v>
+                  <c:v>42110</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42098</c:v>
+                  <c:v>42111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42099</c:v>
+                  <c:v>42112</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42100</c:v>
+                  <c:v>42113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42101</c:v>
+                  <c:v>42114</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42102</c:v>
+                  <c:v>42115</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42103</c:v>
+                  <c:v>42116</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42104</c:v>
+                  <c:v>42117</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42105</c:v>
+                  <c:v>42118</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42106</c:v>
+                  <c:v>42119</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42107</c:v>
+                  <c:v>42120</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42108</c:v>
+                  <c:v>42121</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42109</c:v>
+                  <c:v>42122</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42110</c:v>
+                  <c:v>42123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,28 +1377,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -1476,7 +1480,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>USECASE DIAGRAMM</c:v>
+                  <c:v>#NV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1549,7 +1553,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -1668,94 +1672,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42081</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42082</c:v>
+                  <c:v>42095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42083</c:v>
+                  <c:v>42096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42084</c:v>
+                  <c:v>42097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42085</c:v>
+                  <c:v>42098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42086</c:v>
+                  <c:v>42099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42087</c:v>
+                  <c:v>42100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42088</c:v>
+                  <c:v>42101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42089</c:v>
+                  <c:v>42102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42090</c:v>
+                  <c:v>42103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42091</c:v>
+                  <c:v>42104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42092</c:v>
+                  <c:v>42105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42093</c:v>
+                  <c:v>42106</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42094</c:v>
+                  <c:v>42107</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42095</c:v>
+                  <c:v>42108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42096</c:v>
+                  <c:v>42109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42097</c:v>
+                  <c:v>42110</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42098</c:v>
+                  <c:v>42111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42099</c:v>
+                  <c:v>42112</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42100</c:v>
+                  <c:v>42113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42101</c:v>
+                  <c:v>42114</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42102</c:v>
+                  <c:v>42115</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42103</c:v>
+                  <c:v>42116</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42104</c:v>
+                  <c:v>42117</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42105</c:v>
+                  <c:v>42118</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42106</c:v>
+                  <c:v>42119</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42107</c:v>
+                  <c:v>42120</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42108</c:v>
+                  <c:v>42121</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42109</c:v>
+                  <c:v>42122</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42110</c:v>
+                  <c:v>42123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1767,28 +1771,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -1870,7 +1874,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AKTIVITÄTSDIAGRAMME</c:v>
+                  <c:v>#NV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1940,7 +1944,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -2059,94 +2063,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>42081</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42082</c:v>
+                  <c:v>42095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42083</c:v>
+                  <c:v>42096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42084</c:v>
+                  <c:v>42097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42085</c:v>
+                  <c:v>42098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42086</c:v>
+                  <c:v>42099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42087</c:v>
+                  <c:v>42100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42088</c:v>
+                  <c:v>42101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42089</c:v>
+                  <c:v>42102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42090</c:v>
+                  <c:v>42103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42091</c:v>
+                  <c:v>42104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42092</c:v>
+                  <c:v>42105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42093</c:v>
+                  <c:v>42106</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42094</c:v>
+                  <c:v>42107</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42095</c:v>
+                  <c:v>42108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42096</c:v>
+                  <c:v>42109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42097</c:v>
+                  <c:v>42110</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42098</c:v>
+                  <c:v>42111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42099</c:v>
+                  <c:v>42112</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42100</c:v>
+                  <c:v>42113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42101</c:v>
+                  <c:v>42114</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42102</c:v>
+                  <c:v>42115</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42103</c:v>
+                  <c:v>42116</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42104</c:v>
+                  <c:v>42117</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42105</c:v>
+                  <c:v>42118</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42106</c:v>
+                  <c:v>42119</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42107</c:v>
+                  <c:v>42120</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42108</c:v>
+                  <c:v>42121</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42109</c:v>
+                  <c:v>42122</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42110</c:v>
+                  <c:v>42123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,28 +2165,28 @@
                   <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#N/A</c:v>
@@ -2261,7 +2265,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ERD ERSTELLEN</c:v>
+                  <c:v>GUI ENTWERFEN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2283,7 +2287,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2307,7 +2310,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2342,31 +2344,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#N/A</c:v>
@@ -2485,22 +2487,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.3000000000000007</c:v>
@@ -2509,43 +2511,43 @@
                   <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -2585,7 +2587,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUI ENTWERFEN</c:v>
+                  <c:v>DOKU AKTUALLISIEREN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2658,7 +2660,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#N/A</c:v>
@@ -2697,7 +2699,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -2798,22 +2800,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.3000000000000007</c:v>
@@ -2822,22 +2824,22 @@
                   <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -2877,7 +2879,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DOKU AKTUALLISIEREN</c:v>
+                  <c:v>GUI IN SCENEBUILDER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2971,7 +2973,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>#N/A</c:v>
@@ -2989,7 +2991,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -3090,28 +3092,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>#N/A</c:v>
@@ -3129,28 +3131,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -3169,7 +3171,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUI IN SCENEBUILDER</c:v>
+                  <c:v>MODEL IN JAVA IMPLEMENTIEREN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3266,7 +3268,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>#N/A</c:v>
@@ -3305,7 +3307,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -3415,37 +3417,37 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -3463,9 +3465,6 @@
               <c:f>calcs!$D$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MODEL IN JAVA IMPLEMENTIEREN</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3573,7 +3572,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>#N/A</c:v>
@@ -3597,7 +3596,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -3696,16 +3695,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>#N/A</c:v>
@@ -3767,43 +3766,43 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>#N/A</c:v>
@@ -3892,43 +3891,43 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.5</c:v>
@@ -4050,7 +4049,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -4089,7 +4088,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>#N/A</c:v>
@@ -4338,6 +4337,726 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>31</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{700E31EC-ED16-4526-AA99-0458051B1528}</c15:txfldGUID>
+                      <c15:f>calcs!$E$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>31</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$F$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>01</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{35842101-A6B5-418E-9164-D9B0B2937552}</c15:txfldGUID>
+                      <c15:f>calcs!$F$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>01</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$G$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>02</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{703C590B-0E55-483A-B08C-F14BD57E250B}</c15:txfldGUID>
+                      <c15:f>calcs!$G$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>02</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$H$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>03</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{A395EAE1-A828-428E-AF29-25BB1C7398A2}</c15:txfldGUID>
+                      <c15:f>calcs!$H$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>03</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$I$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>04</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{D6C5963B-7D2C-4810-A5E6-61017DE56D94}</c15:txfldGUID>
+                      <c15:f>calcs!$I$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>04</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$J$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>05</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{61ACE0AD-B245-40C5-836A-5A097A3E16AA}</c15:txfldGUID>
+                      <c15:f>calcs!$J$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>05</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$K$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>06</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{59158712-BD79-4CD7-A9CB-57360F5A88A4}</c15:txfldGUID>
+                      <c15:f>calcs!$K$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>06</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$L$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>07</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{B84CDC3D-7340-4CF0-A2F7-F348F68869A9}</c15:txfldGUID>
+                      <c15:f>calcs!$L$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>07</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$M$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>08</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{B65A2B9D-405E-4BE4-8BE4-D8101AEC495A}</c15:txfldGUID>
+                      <c15:f>calcs!$M$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>08</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$N$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>09</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{1692409A-BDE3-4543-8ABD-4D022636444A}</c15:txfldGUID>
+                      <c15:f>calcs!$N$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>09</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$O$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>10</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{5670B7E2-6442-4EE9-A23F-085969C3DED5}</c15:txfldGUID>
+                      <c15:f>calcs!$O$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$P$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>11</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{D67A97A1-2819-4BEB-A60E-1BD3DC8BB7FD}</c15:txfldGUID>
+                      <c15:f>calcs!$P$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>11</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$Q$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>12</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{5CF79856-DA92-4C0F-9942-B778BB9257A7}</c15:txfldGUID>
+                      <c15:f>calcs!$Q$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>12</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$R$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>13</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{776B26D5-1B33-456C-B967-0393763B75DB}</c15:txfldGUID>
+                      <c15:f>calcs!$R$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>13</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$S$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>14</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{BD30809E-7CFB-461C-B59E-CB852FE4F86D}</c15:txfldGUID>
+                      <c15:f>calcs!$S$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$T$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>15</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{76E63239-CF3C-4E9A-A512-C039638EF403}</c15:txfldGUID>
+                      <c15:f>calcs!$T$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>15</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$U$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>16</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{7CF769AF-4227-438F-936A-2AB715C1650A}</c15:txfldGUID>
+                      <c15:f>calcs!$U$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>16</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$V$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>17</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{F801AFCF-DD4C-4525-ADAF-5D987C39826E}</c15:txfldGUID>
+                      <c15:f>calcs!$V$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>17</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$W$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>18</c:v>
                     </c:pt>
                   </c:strCache>
@@ -4355,8 +5074,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BC90F681-F5E4-4D70-9000-236FA52A816A}</c15:txfldGUID>
-                      <c15:f>calcs!$E$72</c15:f>
+                      <c15:txfldGUID>{DDCC6722-0933-40E4-BD6D-DA5071C6D2E7}</c15:txfldGUID>
+                      <c15:f>calcs!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4370,11 +5089,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$F$72</c:f>
+                  <c:f>calcs!$X$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4395,8 +5114,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CFB85CA6-6B34-45CF-BD61-731C6F07C41E}</c15:txfldGUID>
-                      <c15:f>calcs!$F$72</c15:f>
+                      <c15:txfldGUID>{9A501612-2223-402C-B131-AD9ECD78D4FB}</c15:txfldGUID>
+                      <c15:f>calcs!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4410,11 +5129,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$G$72</c:f>
+                  <c:f>calcs!$Y$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4435,8 +5154,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5839D9D3-C600-4077-A2B2-46A8942BA94B}</c15:txfldGUID>
-                      <c15:f>calcs!$G$72</c15:f>
+                      <c15:txfldGUID>{1726EDD2-0713-4504-891D-69D90CA28C8E}</c15:txfldGUID>
+                      <c15:f>calcs!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4450,11 +5169,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$H$72</c:f>
+                  <c:f>calcs!$Z$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4475,8 +5194,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D608428B-BB5E-4032-B22F-0C1428184775}</c15:txfldGUID>
-                      <c15:f>calcs!$H$72</c15:f>
+                      <c15:txfldGUID>{3E100D06-CF19-4F61-BF39-939609F6E025}</c15:txfldGUID>
+                      <c15:f>calcs!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4490,11 +5209,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$I$72</c:f>
+                  <c:f>calcs!$AA$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4515,8 +5234,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BEDB02E7-9074-4972-8CFC-352DBB4CC7FA}</c15:txfldGUID>
-                      <c15:f>calcs!$I$72</c15:f>
+                      <c15:txfldGUID>{AC2724BE-93D1-4822-AF57-4BEC9FD8F278}</c15:txfldGUID>
+                      <c15:f>calcs!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4530,11 +5249,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$J$72</c:f>
+                  <c:f>calcs!$AB$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4555,8 +5274,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CD0C3B6D-4E5D-4994-9568-78470C3AD9DE}</c15:txfldGUID>
-                      <c15:f>calcs!$J$72</c15:f>
+                      <c15:txfldGUID>{B3070F15-FB03-4308-927E-8B70170B8019}</c15:txfldGUID>
+                      <c15:f>calcs!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4570,11 +5289,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$K$72</c:f>
+                  <c:f>calcs!$AC$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4595,8 +5314,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E58758B6-2194-49B9-82B7-E1A7C7EAB837}</c15:txfldGUID>
-                      <c15:f>calcs!$K$72</c15:f>
+                      <c15:txfldGUID>{18F5F4B6-0994-4C6C-9560-1D0827511BB5}</c15:txfldGUID>
+                      <c15:f>calcs!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4610,11 +5329,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$L$72</c:f>
+                  <c:f>calcs!$AD$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4635,8 +5354,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CCD26EE7-74F6-4FE5-87DA-EC42332F3358}</c15:txfldGUID>
-                      <c15:f>calcs!$L$72</c15:f>
+                      <c15:txfldGUID>{B876A707-3705-4597-8F27-41D76B689E7C}</c15:txfldGUID>
+                      <c15:f>calcs!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4650,11 +5369,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$M$72</c:f>
+                  <c:f>calcs!$AE$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4675,8 +5394,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4FC5E2A9-922E-41D5-9673-C243D5B8A977}</c15:txfldGUID>
-                      <c15:f>calcs!$M$72</c15:f>
+                      <c15:txfldGUID>{D0303543-8F35-4BE3-B3FB-B7C7EE73B4B1}</c15:txfldGUID>
+                      <c15:f>calcs!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4690,11 +5409,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$N$72</c:f>
+                  <c:f>calcs!$AF$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4715,8 +5434,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F9740504-AE45-4293-9C8C-3A48D258CB71}</c15:txfldGUID>
-                      <c15:f>calcs!$N$72</c15:f>
+                      <c15:txfldGUID>{7BF1ECAB-FCEB-40E5-91AE-4445D1424DA3}</c15:txfldGUID>
+                      <c15:f>calcs!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4730,11 +5449,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$O$72</c:f>
+                  <c:f>calcs!$AG$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4755,8 +5474,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6A8D0808-3FE1-4C83-BDB0-A675FFD30F4D}</c15:txfldGUID>
-                      <c15:f>calcs!$O$72</c15:f>
+                      <c15:txfldGUID>{27EB2B34-DBCA-468C-9CDF-C2CC4AFB82AD}</c15:txfldGUID>
+                      <c15:f>calcs!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4770,11 +5489,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$P$72</c:f>
+                  <c:f>calcs!$AH$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4795,732 +5514,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D631FE1A-E8E8-4E96-8DFD-6559A55E2F71}</c15:txfldGUID>
-                      <c15:f>calcs!$P$72</c15:f>
+                      <c15:txfldGUID>{40805C04-515D-4B29-B766-BD1978C6D786}</c15:txfldGUID>
+                      <c15:f>calcs!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>29</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$Q$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>30</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{89CF4C45-47C1-4CCA-B894-4550A8055AB9}</c15:txfldGUID>
-                      <c15:f>calcs!$Q$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>30</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$R$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>31</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A200A54F-4CA0-4950-9E96-B6DF1BE7A57F}</c15:txfldGUID>
-                      <c15:f>calcs!$R$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>31</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$S$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>01</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6D2B76A4-1DCA-4F4E-ADCF-5B2008C5F3B6}</c15:txfldGUID>
-                      <c15:f>calcs!$S$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>01</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$T$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>02</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{53498652-A16D-4E4D-8D59-29602A1CCFBE}</c15:txfldGUID>
-                      <c15:f>calcs!$T$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>02</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$U$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>03</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B28BE9E6-1B02-4B25-A136-B6EEE4584F47}</c15:txfldGUID>
-                      <c15:f>calcs!$U$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>03</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$V$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>04</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D54EF92B-3A87-424E-BA27-03A0214A5BD7}</c15:txfldGUID>
-                      <c15:f>calcs!$V$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>04</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$W$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>05</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6F87E670-1028-4542-8C69-165924075997}</c15:txfldGUID>
-                      <c15:f>calcs!$W$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>05</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$X$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>06</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E9102AAA-24CA-4DBF-A4C2-3AF578A332F8}</c15:txfldGUID>
-                      <c15:f>calcs!$X$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>06</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$Y$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>07</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C9995E84-6844-41ED-AB79-759E73897A72}</c15:txfldGUID>
-                      <c15:f>calcs!$Y$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>07</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$Z$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>08</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2955F403-BE40-4D9A-84B3-42DE9054E4A3}</c15:txfldGUID>
-                      <c15:f>calcs!$Z$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>08</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AA$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>09</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{14A51F8F-D20F-4270-97FE-EAF9D01B8D6B}</c15:txfldGUID>
-                      <c15:f>calcs!$AA$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>09</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AB$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>10</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BEE113BA-BA11-47BA-A02C-002C37F67ECE}</c15:txfldGUID>
-                      <c15:f>calcs!$AB$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>10</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AC$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>11</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{586613B1-EC05-4966-AA76-FE0FCAEC90D0}</c15:txfldGUID>
-                      <c15:f>calcs!$AC$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>11</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AD$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>12</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A169107A-5C6A-4AA9-87A3-AC82226FCD98}</c15:txfldGUID>
-                      <c15:f>calcs!$AD$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>12</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AE$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>13</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F2B9EEF4-BA6E-4490-A04B-A0CDFC75C25F}</c15:txfldGUID>
-                      <c15:f>calcs!$AE$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>13</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AF$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>14</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{923AE48D-C75E-4D6A-885F-DE73835B254B}</c15:txfldGUID>
-                      <c15:f>calcs!$AF$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AG$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>15</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8C2C2C83-5E44-4F72-BB3A-501694789AFF}</c15:txfldGUID>
-                      <c15:f>calcs!$AG$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>15</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AH$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>16</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DC60198C-87AA-43C3-B587-AEA75DE71770}</c15:txfldGUID>
-                      <c15:f>calcs!$AH$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>16</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5685,6 +5684,46 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>DI</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{C6252D71-6D25-4212-9088-36CE765AD092}</c15:txfldGUID>
+                      <c15:f>calcs!$E$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>DI</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$F$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>MI</c:v>
                     </c:pt>
                   </c:strCache>
@@ -5702,8 +5741,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A9F6E32B-8DEC-4E65-92EA-8D2ADF60E843}</c15:txfldGUID>
-                      <c15:f>calcs!$E$70</c15:f>
+                      <c15:txfldGUID>{C4AE162E-31D8-4081-A340-678845E54C11}</c15:txfldGUID>
+                      <c15:f>calcs!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5717,11 +5756,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="2"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$F$70</c:f>
+                  <c:f>calcs!$G$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5742,8 +5781,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FD0CCDF1-0260-420E-B3F1-C560CD5265CC}</c15:txfldGUID>
-                      <c15:f>calcs!$F$70</c15:f>
+                      <c15:txfldGUID>{B5A94C9E-8176-4AC7-B685-4AB59B2B9283}</c15:txfldGUID>
+                      <c15:f>calcs!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5757,11 +5796,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="3"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$G$70</c:f>
+                  <c:f>calcs!$H$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5782,8 +5821,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6850BD89-82CC-45CF-B006-8B52AFB254C7}</c15:txfldGUID>
-                      <c15:f>calcs!$G$70</c15:f>
+                      <c15:txfldGUID>{3ECF1A1C-BE3C-4E2E-9189-599A21C7837E}</c15:txfldGUID>
+                      <c15:f>calcs!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5797,11 +5836,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="4"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$H$70</c:f>
+                  <c:f>calcs!$I$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5822,8 +5861,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F81C8341-6476-4803-B66D-DF28E060D38B}</c15:txfldGUID>
-                      <c15:f>calcs!$H$70</c15:f>
+                      <c15:txfldGUID>{FF295A6F-20AE-4837-B87C-16803BAE5511}</c15:txfldGUID>
+                      <c15:f>calcs!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5837,11 +5876,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="5"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$I$70</c:f>
+                  <c:f>calcs!$J$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5862,8 +5901,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{06C97D7B-30CC-45A1-A908-33DC12AEE6B2}</c15:txfldGUID>
-                      <c15:f>calcs!$I$70</c15:f>
+                      <c15:txfldGUID>{FEFA86E7-3F8F-4370-B08F-0051A5259489}</c15:txfldGUID>
+                      <c15:f>calcs!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5877,11 +5916,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="6"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$J$70</c:f>
+                  <c:f>calcs!$K$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5902,8 +5941,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{317B8607-A660-4F96-858F-2D9F60395143}</c15:txfldGUID>
-                      <c15:f>calcs!$J$70</c15:f>
+                      <c15:txfldGUID>{9C9E98D8-2EBD-4F66-8C1A-94199527CA20}</c15:txfldGUID>
+                      <c15:f>calcs!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5917,11 +5956,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="7"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$K$70</c:f>
+                  <c:f>calcs!$L$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5942,8 +5981,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{876C231E-EC20-4511-BC7E-7F5CCBB79B14}</c15:txfldGUID>
-                      <c15:f>calcs!$K$70</c15:f>
+                      <c15:txfldGUID>{51F68737-5B16-472C-9B44-08814649A54F}</c15:txfldGUID>
+                      <c15:f>calcs!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5957,11 +5996,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="8"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$L$70</c:f>
+                  <c:f>calcs!$M$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5982,8 +6021,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8B0CC3D8-E642-4355-A478-ED5AEE5FBD68}</c15:txfldGUID>
-                      <c15:f>calcs!$L$70</c15:f>
+                      <c15:txfldGUID>{A1299415-F46D-4708-ACFD-044607561627}</c15:txfldGUID>
+                      <c15:f>calcs!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5997,11 +6036,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="9"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$M$70</c:f>
+                  <c:f>calcs!$N$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6022,8 +6061,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{559ED387-C042-4D9C-9255-AF885ED74056}</c15:txfldGUID>
-                      <c15:f>calcs!$M$70</c15:f>
+                      <c15:txfldGUID>{A6585A42-ACCC-4CEB-9F2E-24F71CBC54CF}</c15:txfldGUID>
+                      <c15:f>calcs!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6037,11 +6076,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$N$70</c:f>
+                  <c:f>calcs!$O$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6062,8 +6101,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D10AAA77-C992-4EFD-8DEE-E215CF8E840C}</c15:txfldGUID>
-                      <c15:f>calcs!$N$70</c15:f>
+                      <c15:txfldGUID>{079AA3A3-7E24-4C12-BFBA-34A7B5A5F4AE}</c15:txfldGUID>
+                      <c15:f>calcs!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6077,11 +6116,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="11"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$O$70</c:f>
+                  <c:f>calcs!$P$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6102,8 +6141,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{21DA09EB-F2AB-4554-8CEB-DA837231D256}</c15:txfldGUID>
-                      <c15:f>calcs!$O$70</c15:f>
+                      <c15:txfldGUID>{5FB60D58-B853-420A-B419-70D617691308}</c15:txfldGUID>
+                      <c15:f>calcs!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6117,11 +6156,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="12"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$P$70</c:f>
+                  <c:f>calcs!$Q$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6142,8 +6181,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{37435261-55BA-4F0D-AE3C-9479D7F6CBF2}</c15:txfldGUID>
-                      <c15:f>calcs!$P$70</c15:f>
+                      <c15:txfldGUID>{033F9DC8-CF5C-4792-A985-37E05E20E72D}</c15:txfldGUID>
+                      <c15:f>calcs!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6157,11 +6196,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="13"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Q$70</c:f>
+                  <c:f>calcs!$R$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6182,8 +6221,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{79A40BAC-5842-45EC-A70B-ECFF467AD47E}</c15:txfldGUID>
-                      <c15:f>calcs!$Q$70</c15:f>
+                      <c15:txfldGUID>{4ECE4373-E52F-49F4-A61D-893C0C836923}</c15:txfldGUID>
+                      <c15:f>calcs!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6197,11 +6236,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$R$70</c:f>
+                  <c:f>calcs!$S$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6222,8 +6261,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CAE1EE4F-D377-4955-BE9B-53C397D99D6F}</c15:txfldGUID>
-                      <c15:f>calcs!$R$70</c15:f>
+                      <c15:txfldGUID>{A90F68CD-767E-481D-8138-E5054CD04826}</c15:txfldGUID>
+                      <c15:f>calcs!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6237,11 +6276,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$S$70</c:f>
+                  <c:f>calcs!$T$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6262,8 +6301,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C894E004-6201-4C71-AF5D-72EF92FED957}</c15:txfldGUID>
-                      <c15:f>calcs!$S$70</c15:f>
+                      <c15:txfldGUID>{B68C2E60-0E1B-48A3-BEBB-D72CAD95DD39}</c15:txfldGUID>
+                      <c15:f>calcs!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6277,11 +6316,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$T$70</c:f>
+                  <c:f>calcs!$U$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6302,8 +6341,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7D69F40B-13A3-4028-97E1-150474F85BBC}</c15:txfldGUID>
-                      <c15:f>calcs!$T$70</c15:f>
+                      <c15:txfldGUID>{E6C0B084-291E-42F1-9D05-C2F8441E9B19}</c15:txfldGUID>
+                      <c15:f>calcs!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6317,11 +6356,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$U$70</c:f>
+                  <c:f>calcs!$V$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6342,8 +6381,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{75EE6A9C-014B-4E03-995E-3B021AF140BB}</c15:txfldGUID>
-                      <c15:f>calcs!$U$70</c15:f>
+                      <c15:txfldGUID>{31717F99-1A05-426C-901A-B23C09EEADC9}</c15:txfldGUID>
+                      <c15:f>calcs!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6357,11 +6396,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$V$70</c:f>
+                  <c:f>calcs!$W$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6382,8 +6421,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5A950661-7EDF-42A7-9932-04C57489BEA5}</c15:txfldGUID>
-                      <c15:f>calcs!$V$70</c15:f>
+                      <c15:txfldGUID>{69222EB1-592A-4481-BB74-3F08D22B4E0B}</c15:txfldGUID>
+                      <c15:f>calcs!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6397,11 +6436,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$W$70</c:f>
+                  <c:f>calcs!$X$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6422,8 +6461,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A45BC186-B1E9-4404-8CBA-9E96D2623E56}</c15:txfldGUID>
-                      <c15:f>calcs!$W$70</c15:f>
+                      <c15:txfldGUID>{494A71C4-EF24-419A-99FF-38EE5641E6E7}</c15:txfldGUID>
+                      <c15:f>calcs!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6437,11 +6476,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$X$70</c:f>
+                  <c:f>calcs!$Y$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6462,8 +6501,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8DD47DDD-B254-48BA-ADF8-F34F00E9C3D8}</c15:txfldGUID>
-                      <c15:f>calcs!$X$70</c15:f>
+                      <c15:txfldGUID>{FA78571F-7722-4C18-9D8E-3D23E0803B38}</c15:txfldGUID>
+                      <c15:f>calcs!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6477,11 +6516,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Y$70</c:f>
+                  <c:f>calcs!$Z$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6502,8 +6541,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EB92FD16-D8EA-4269-9CEA-C5DD268B4BA3}</c15:txfldGUID>
-                      <c15:f>calcs!$Y$70</c15:f>
+                      <c15:txfldGUID>{297D14AC-C62A-4C52-AED9-CE8AD1BFBD7C}</c15:txfldGUID>
+                      <c15:f>calcs!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6517,11 +6556,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Z$70</c:f>
+                  <c:f>calcs!$AA$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6542,8 +6581,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7F60E9A5-A304-4162-A9B4-2487A168788A}</c15:txfldGUID>
-                      <c15:f>calcs!$Z$70</c15:f>
+                      <c15:txfldGUID>{F161D356-5CB9-449E-AB79-B0C45639A9E3}</c15:txfldGUID>
+                      <c15:f>calcs!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6557,11 +6596,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AA$70</c:f>
+                  <c:f>calcs!$AB$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6582,8 +6621,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{93FF1D6B-6F72-4822-BF02-0FFFAFF8AD61}</c15:txfldGUID>
-                      <c15:f>calcs!$AA$70</c15:f>
+                      <c15:txfldGUID>{7AA0B553-02C2-4D7D-9EC4-56AA5D86BFBC}</c15:txfldGUID>
+                      <c15:f>calcs!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6597,11 +6636,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AB$70</c:f>
+                  <c:f>calcs!$AC$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6622,8 +6661,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{16527CE4-A711-49C0-94B7-DE8B3909FE57}</c15:txfldGUID>
-                      <c15:f>calcs!$AB$70</c15:f>
+                      <c15:txfldGUID>{A200A672-7F62-45BD-875C-9448C9FB04BF}</c15:txfldGUID>
+                      <c15:f>calcs!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6637,11 +6676,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AC$70</c:f>
+                  <c:f>calcs!$AD$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6662,8 +6701,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D19BF2D2-852E-41B4-AEF4-AC873516952B}</c15:txfldGUID>
-                      <c15:f>calcs!$AC$70</c15:f>
+                      <c15:txfldGUID>{5439FB7E-5AA2-4697-9BF5-62157F64EDF7}</c15:txfldGUID>
+                      <c15:f>calcs!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6677,11 +6716,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AD$70</c:f>
+                  <c:f>calcs!$AE$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6702,8 +6741,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9E5D0A9E-13B0-4669-B876-D90FD61C0AC0}</c15:txfldGUID>
-                      <c15:f>calcs!$AD$70</c15:f>
+                      <c15:txfldGUID>{39264D81-BC1C-45CF-BA29-7DEAF4988E46}</c15:txfldGUID>
+                      <c15:f>calcs!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6717,11 +6756,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="26"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AE$70</c:f>
+                  <c:f>calcs!$AF$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6742,8 +6781,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0721921E-B676-4B91-A387-617C2B52F092}</c15:txfldGUID>
-                      <c15:f>calcs!$AE$70</c15:f>
+                      <c15:txfldGUID>{02F0E403-3750-41E4-A61B-6C1576B0BE76}</c15:txfldGUID>
+                      <c15:f>calcs!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6757,11 +6796,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="27"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AF$70</c:f>
+                  <c:f>calcs!$AG$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6782,8 +6821,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6C512479-BA8F-4056-BADC-9F7F604F5CBF}</c15:txfldGUID>
-                      <c15:f>calcs!$AF$70</c15:f>
+                      <c15:txfldGUID>{8EE9EF22-76CE-45AD-9EA3-998D1082B0AB}</c15:txfldGUID>
+                      <c15:f>calcs!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6797,11 +6836,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="28"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AG$70</c:f>
+                  <c:f>calcs!$AH$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6822,52 +6861,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EF77DF6D-B6F3-4242-842F-BFDEE5F714C5}</c15:txfldGUID>
-                      <c15:f>calcs!$AG$70</c15:f>
+                      <c15:txfldGUID>{537B51C4-AD46-4EC9-9520-54730F530940}</c15:txfldGUID>
+                      <c15:f>calcs!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>MI</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AH$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>DO</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DE4EC032-A849-457D-847B-A70BDB73E641}</c15:txfldGUID>
-                      <c15:f>calcs!$AH$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>DO</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7041,43 +7040,43 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>#N/A</c:v>
@@ -7166,43 +7165,43 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>13</c:v>
@@ -7267,11 +7266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="342401968"/>
-        <c:axId val="342402360"/>
+        <c:axId val="300918792"/>
+        <c:axId val="300914480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="342401968"/>
+        <c:axId val="300918792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7294,14 +7293,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342402360"/>
+        <c:crossAx val="300914480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="342402360"/>
+        <c:axId val="300914480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7313,7 +7312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342401968"/>
+        <c:crossAx val="300918792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7348,7 +7347,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="FensterOffset" horiz="1" max="100" noThreeD="1" page="7" val="29"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="FensterOffset" horiz="1" max="100" noThreeD="1" page="7" val="42"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7434,8 +7433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Aktivitäten" displayName="Aktivitäten" ref="B22:F34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B22:F34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Aktivitäten" displayName="Aktivitäten" ref="B22:F35" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B22:F35"/>
   <sortState ref="C20:F25">
     <sortCondition ref="D19:D25"/>
   </sortState>
@@ -7444,13 +7443,13 @@
       <calculatedColumnFormula>N(B22)+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" name="AKTIVITÄT" dataDxfId="3"/>
-    <tableColumn id="2" name="ANFANG" dataDxfId="2">
+    <tableColumn id="2" name="ANFANG" dataDxfId="0">
       <calculatedColumnFormula>D22+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ENDE" dataDxfId="1">
+    <tableColumn id="3" name="ENDE" dataDxfId="2">
       <calculatedColumnFormula>Aktivitäten[[#This Row],[ANFANG]]+2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="NOTIZEN" dataDxfId="0"/>
+    <tableColumn id="4" name="NOTIZEN" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Project Timeline" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -7692,10 +7691,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7868,7 +7867,7 @@
     </row>
     <row r="29" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16">
-        <f t="shared" ref="B29:B34" si="1">N(B28)+1</f>
+        <f t="shared" ref="B29:B32" si="1">N(B28)+1</f>
         <v>7</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -7940,7 +7939,7 @@
     </row>
     <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16">
-        <f t="shared" si="1"/>
+        <f>N(B32)+1</f>
         <v>11</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -7956,17 +7955,33 @@
     </row>
     <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16">
-        <f t="shared" si="1"/>
+        <f>N(B33)+1</f>
         <v>12</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="20">
+        <f>D33+10</f>
+        <v>42112</v>
+      </c>
+      <c r="E34" s="20">
+        <f>Aktivitäten[[#This Row],[ANFANG]]+2</f>
+        <v>42114</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="16">
+        <f>N(B33)+1</f>
+        <v>12</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D35" s="15">
         <v>42145</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -8040,7 +8055,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>42100</v>
+        <v>42116</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -8073,7 +8088,7 @@
       </c>
       <c r="D9">
         <f>SUMPRODUCT( ((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)) )</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" t="e">
         <f>NA()</f>
@@ -8092,7 +8107,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11">
         <f>D10-MIN(D10,D9)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" t="e">
         <f>NA()</f>
@@ -8123,7 +8138,7 @@
       <c r="C15" s="2"/>
       <c r="E15">
         <f t="array" ref="E15">INDEX(Aktivitäten[Id],MATCH(1, ((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" t="e">
         <f t="shared" ref="F15:F23" ca="1" si="0">OFFSET(E15,-$D$11,)</f>
@@ -8134,72 +8149,72 @@
       <c r="C16" s="2"/>
       <c r="E16">
         <f t="array" ref="E16">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E15)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>5</v>
-      </c>
-      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="F16" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="E17">
         <f t="array" ref="E17">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E16)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>6</v>
-      </c>
-      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E18">
         <f t="array" ref="E18">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E17)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>7</v>
-      </c>
-      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="F18" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E19">
         <f t="array" ref="E19">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E18)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="E20">
+      <c r="E20" t="e">
         <f t="array" ref="E20">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E19)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>9</v>
+        <v>#N/A</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="E21">
+      <c r="E21" t="e">
         <f t="array" ref="E21">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E20)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>10</v>
+        <v>#N/A</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="E22">
+      <c r="E22" t="e">
         <f t="array" ref="E22">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E21)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>11</v>
+        <v>#N/A</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
@@ -8209,7 +8224,7 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
@@ -8218,7 +8233,7 @@
       </c>
       <c r="D25" s="1">
         <f>Startdatum+FensterOffset</f>
-        <v>42081</v>
+        <v>42094</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
@@ -8226,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
@@ -8261,127 +8276,127 @@
       </c>
       <c r="E31" s="1">
         <f>StartDatumFenster</f>
-        <v>42081</v>
+        <v>42094</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ref="F31:AI31" si="1">E31+1</f>
-        <v>42082</v>
+        <v>42095</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>42083</v>
+        <v>42096</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>42084</v>
+        <v>42097</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>42085</v>
+        <v>42098</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42099</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>42087</v>
+        <v>42100</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="1"/>
-        <v>42088</v>
+        <v>42101</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>42089</v>
+        <v>42102</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="1"/>
-        <v>42090</v>
+        <v>42103</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="1"/>
-        <v>42091</v>
+        <v>42104</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="1"/>
-        <v>42092</v>
+        <v>42105</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="1"/>
-        <v>42093</v>
+        <v>42106</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="1"/>
-        <v>42094</v>
+        <v>42107</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="1"/>
-        <v>42095</v>
+        <v>42108</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="1"/>
-        <v>42096</v>
+        <v>42109</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="1"/>
-        <v>42097</v>
+        <v>42110</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="1"/>
-        <v>42098</v>
+        <v>42111</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="1"/>
-        <v>42099</v>
+        <v>42112</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="1"/>
-        <v>42100</v>
+        <v>42113</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="1"/>
-        <v>42101</v>
+        <v>42114</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="1"/>
-        <v>42102</v>
+        <v>42115</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="1"/>
-        <v>42103</v>
+        <v>42116</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="1"/>
-        <v>42104</v>
+        <v>42117</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>42105</v>
+        <v>42118</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="1"/>
-        <v>42106</v>
+        <v>42119</v>
       </c>
       <c r="AE31" s="1">
         <f t="shared" si="1"/>
-        <v>42107</v>
+        <v>42120</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="1"/>
-        <v>42108</v>
+        <v>42121</v>
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="1"/>
-        <v>42109</v>
+        <v>42122</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" si="1"/>
-        <v>42110</v>
+        <v>42123</v>
       </c>
       <c r="AI31" s="1">
         <f t="shared" si="1"/>
-        <v>42111</v>
+        <v>42124</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
@@ -8532,17 +8547,17 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D33" t="e">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C33,Aktivitäten[Id],0))</f>
-        <v>UseCase Beschrieb</v>
-      </c>
-      <c r="E33">
-        <f ca="1">Rasterberechnung</f>
-        <v>10.3</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E33" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
       </c>
       <c r="F33" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -8673,45 +8688,45 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D34" t="e">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C34,Aktivitäten[Id],0))</f>
-        <v>UseCase Diagramm</v>
-      </c>
-      <c r="E34">
-        <f ca="1">Rasterberechnung</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F34">
-        <f ca="1">Rasterberechnung</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G34">
-        <f ca="1">Rasterberechnung</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H34">
-        <f ca="1">Rasterberechnung</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I34">
-        <f ca="1">Rasterberechnung</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="J34">
-        <f ca="1">Rasterberechnung</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="K34">
-        <f ca="1">Rasterberechnung</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="L34">
-        <f ca="1">Rasterberechnung</f>
-        <v>9.3000000000000007</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E34" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F34" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G34" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H34" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I34" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J34" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K34" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L34" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
       </c>
       <c r="M34" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -8814,45 +8829,45 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D35" t="e">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C35,Aktivitäten[Id],0))</f>
-        <v>Aktivitätsdiagramme</v>
-      </c>
-      <c r="E35">
-        <f ca="1">Rasterberechnung</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F35">
-        <f ca="1">Rasterberechnung</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G35">
-        <f ca="1">Rasterberechnung</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H35">
-        <f ca="1">Rasterberechnung</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I35">
-        <f ca="1">Rasterberechnung</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J35">
-        <f ca="1">Rasterberechnung</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K35">
-        <f ca="1">Rasterberechnung</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L35">
-        <f ca="1">Rasterberechnung</f>
-        <v>8.3000000000000007</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E35" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F35" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G35" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H35" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I35" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J35" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K35" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L35" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
       </c>
       <c r="M35" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -8957,47 +8972,47 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" t="str">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C36,Aktivitäten[Id],0))</f>
-        <v>ERD Erstellen</v>
+        <v>GUI Entwerfen</v>
       </c>
       <c r="E36">
         <f ca="1">Rasterberechnung</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="F36" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G36" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H36" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I36" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J36" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K36" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L36" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M36" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
+      <c r="F36">
+        <f ca="1">Rasterberechnung</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="G36">
+        <f ca="1">Rasterberechnung</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="H36">
+        <f ca="1">Rasterberechnung</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="I36">
+        <f ca="1">Rasterberechnung</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="J36">
+        <f ca="1">Rasterberechnung</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="K36">
+        <f ca="1">Rasterberechnung</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="L36">
+        <f ca="1">Rasterberechnung</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="M36">
+        <f ca="1">Rasterberechnung</f>
+        <v>7.3000000000000007</v>
       </c>
       <c r="N36" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9098,39 +9113,39 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="str">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C37,Aktivitäten[Id],0))</f>
-        <v>GUI Entwerfen</v>
+        <v>Doku Aktuallisieren</v>
       </c>
       <c r="E37" t="e">
         <f ca="1">Rasterberechnung</f>
         <v>#N/A</v>
       </c>
-      <c r="F37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
+      <c r="F37">
+        <f ca="1">Rasterberechnung</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="G37">
+        <f ca="1">Rasterberechnung</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="H37">
+        <f ca="1">Rasterberechnung</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="I37">
+        <f ca="1">Rasterberechnung</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="J37">
+        <f ca="1">Rasterberechnung</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="K37">
+        <f ca="1">Rasterberechnung</f>
+        <v>6.3000000000000007</v>
       </c>
       <c r="L37">
         <f ca="1">Rasterberechnung</f>
@@ -9140,57 +9155,57 @@
         <f ca="1">Rasterberechnung</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="N37">
-        <f ca="1">Rasterberechnung</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="O37">
-        <f ca="1">Rasterberechnung</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="P37">
-        <f ca="1">Rasterberechnung</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="Q37">
-        <f ca="1">Rasterberechnung</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="R37">
-        <f ca="1">Rasterberechnung</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="S37">
-        <f ca="1">Rasterberechnung</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="T37">
-        <f ca="1">Rasterberechnung</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="U37">
-        <f ca="1">Rasterberechnung</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="V37">
-        <f ca="1">Rasterberechnung</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="W37">
-        <f ca="1">Rasterberechnung</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="X37">
-        <f ca="1">Rasterberechnung</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="Y37">
-        <f ca="1">Rasterberechnung</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="Z37">
-        <f ca="1">Rasterberechnung</f>
-        <v>6.3000000000000007</v>
+      <c r="N37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
       </c>
       <c r="AA37" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9239,11 +9254,11 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="str">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C38,Aktivitäten[Id],0))</f>
-        <v>Doku Aktuallisieren</v>
+        <v>GUI in SceneBuilder</v>
       </c>
       <c r="E38" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9277,29 +9292,29 @@
         <f ca="1">Rasterberechnung</f>
         <v>#N/A</v>
       </c>
-      <c r="M38" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N38" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O38" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P38" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q38" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R38" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
+      <c r="M38">
+        <f ca="1">Rasterberechnung</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="N38">
+        <f ca="1">Rasterberechnung</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="O38">
+        <f ca="1">Rasterberechnung</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="P38">
+        <f ca="1">Rasterberechnung</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="Q38">
+        <f ca="1">Rasterberechnung</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="R38">
+        <f ca="1">Rasterberechnung</f>
+        <v>5.3000000000000007</v>
       </c>
       <c r="S38">
         <f ca="1">Rasterberechnung</f>
@@ -9309,29 +9324,29 @@
         <f ca="1">Rasterberechnung</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="U38">
-        <f ca="1">Rasterberechnung</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="V38">
-        <f ca="1">Rasterberechnung</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="W38">
-        <f ca="1">Rasterberechnung</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="X38">
-        <f ca="1">Rasterberechnung</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="Y38">
-        <f ca="1">Rasterberechnung</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="Z38">
-        <f ca="1">Rasterberechnung</f>
-        <v>5.3000000000000007</v>
+      <c r="U38" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V38" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W38" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X38" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y38" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z38" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
       </c>
       <c r="AA38" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9380,11 +9395,11 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" t="str">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C39,Aktivitäten[Id],0))</f>
-        <v>GUI in SceneBuilder</v>
+        <v>Model in Java implementieren</v>
       </c>
       <c r="E39" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9418,37 +9433,37 @@
         <f ca="1">Rasterberechnung</f>
         <v>#N/A</v>
       </c>
-      <c r="M39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
+      <c r="M39">
+        <f ca="1">Rasterberechnung</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="N39">
+        <f ca="1">Rasterberechnung</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="O39">
+        <f ca="1">Rasterberechnung</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="P39">
+        <f ca="1">Rasterberechnung</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="Q39">
+        <f ca="1">Rasterberechnung</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="R39">
+        <f ca="1">Rasterberechnung</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="S39">
+        <f ca="1">Rasterberechnung</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="T39">
+        <f ca="1">Rasterberechnung</f>
+        <v>4.3000000000000007</v>
       </c>
       <c r="U39" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9470,37 +9485,37 @@
         <f ca="1">Rasterberechnung</f>
         <v>#N/A</v>
       </c>
-      <c r="Z39">
-        <f ca="1">Rasterberechnung</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AA39">
-        <f ca="1">Rasterberechnung</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AB39">
-        <f ca="1">Rasterberechnung</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AC39">
-        <f ca="1">Rasterberechnung</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AD39">
-        <f ca="1">Rasterberechnung</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AE39">
-        <f ca="1">Rasterberechnung</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AF39">
-        <f ca="1">Rasterberechnung</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AG39">
-        <f ca="1">Rasterberechnung</f>
-        <v>4.3000000000000007</v>
+      <c r="Z39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
       </c>
       <c r="AH39" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9521,11 +9536,11 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="D40" t="str">
+        <v>12</v>
+      </c>
+      <c r="D40">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C40,Aktivitäten[Id],0))</f>
-        <v>Model in Java implementieren</v>
+        <v>0</v>
       </c>
       <c r="E40" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9599,49 +9614,49 @@
         <f ca="1">Rasterberechnung</f>
         <v>#N/A</v>
       </c>
-      <c r="W40" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X40" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y40" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z40">
+      <c r="W40">
         <f ca="1">Rasterberechnung</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="AA40">
+      <c r="X40">
         <f ca="1">Rasterberechnung</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="AB40">
+      <c r="Y40">
         <f ca="1">Rasterberechnung</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="AC40">
-        <f ca="1">Rasterberechnung</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AD40">
-        <f ca="1">Rasterberechnung</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AE40">
-        <f ca="1">Rasterberechnung</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AF40">
-        <f ca="1">Rasterberechnung</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AG40">
-        <f ca="1">Rasterberechnung</f>
-        <v>3.3000000000000007</v>
+      <c r="Z40" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA40" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB40" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC40" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD40" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE40" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF40" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG40" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
       </c>
       <c r="AH40" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9655,123 +9670,123 @@
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E43" s="1">
         <f>E31</f>
-        <v>42081</v>
+        <v>42094</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ref="F43:AH43" si="4">F31</f>
-        <v>42082</v>
+        <v>42095</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="4"/>
-        <v>42083</v>
+        <v>42096</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="4"/>
-        <v>42084</v>
+        <v>42097</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="4"/>
-        <v>42085</v>
+        <v>42098</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>42086</v>
+        <v>42099</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="4"/>
-        <v>42087</v>
+        <v>42100</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>42088</v>
+        <v>42101</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="4"/>
-        <v>42089</v>
+        <v>42102</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="4"/>
-        <v>42090</v>
+        <v>42103</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="4"/>
-        <v>42091</v>
+        <v>42104</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="4"/>
-        <v>42092</v>
+        <v>42105</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="4"/>
-        <v>42093</v>
+        <v>42106</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="4"/>
-        <v>42094</v>
+        <v>42107</v>
       </c>
       <c r="S43" s="1">
         <f t="shared" si="4"/>
-        <v>42095</v>
+        <v>42108</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" si="4"/>
-        <v>42096</v>
+        <v>42109</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="4"/>
-        <v>42097</v>
+        <v>42110</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="4"/>
-        <v>42098</v>
+        <v>42111</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="4"/>
-        <v>42099</v>
+        <v>42112</v>
       </c>
       <c r="X43" s="1">
         <f t="shared" si="4"/>
-        <v>42100</v>
+        <v>42113</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="4"/>
-        <v>42101</v>
+        <v>42114</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="4"/>
-        <v>42102</v>
+        <v>42115</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="4"/>
-        <v>42103</v>
+        <v>42116</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="4"/>
-        <v>42104</v>
+        <v>42117</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="4"/>
-        <v>42105</v>
+        <v>42118</v>
       </c>
       <c r="AD43" s="1">
         <f t="shared" si="4"/>
-        <v>42106</v>
+        <v>42119</v>
       </c>
       <c r="AE43" s="1">
         <f t="shared" si="4"/>
-        <v>42107</v>
+        <v>42120</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="4"/>
-        <v>42108</v>
+        <v>42121</v>
       </c>
       <c r="AG43" s="1">
         <f t="shared" si="4"/>
-        <v>42109</v>
+        <v>42122</v>
       </c>
       <c r="AH43" s="1">
         <f t="shared" si="4"/>
-        <v>42110</v>
+        <v>42123</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
@@ -9905,17 +9920,17 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C45">
+      <c r="C45" t="e">
         <f t="shared" ref="C45:C52" ca="1" si="6">C33</f>
-        <v>4</v>
-      </c>
-      <c r="D45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D45" t="e">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C45,Aktivitäten[Id],0)))</f>
-        <v>USECASE BESCHRIEB</v>
-      </c>
-      <c r="E45">
+        <v>#N/A</v>
+      </c>
+      <c r="E45" t="e">
         <f t="shared" ref="E45:AH45" ca="1" si="7">IF(ISERROR(F33),E33,NA())</f>
-        <v>10.3</v>
+        <v>#N/A</v>
       </c>
       <c r="F45" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -10035,13 +10050,13 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C46">
+      <c r="C46" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="D46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D46" t="e">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C46,Aktivitäten[Id],0)))</f>
-        <v>USECASE DIAGRAMM</v>
+        <v>#N/A</v>
       </c>
       <c r="E46" t="e">
         <f t="shared" ref="E46:AH46" ca="1" si="8">IF(ISERROR(F34),E34,NA())</f>
@@ -10071,9 +10086,9 @@
         <f t="shared" ca="1" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="L46">
+      <c r="L46" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>9.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="M46" t="e">
         <f t="shared" ca="1" si="8"/>
@@ -10165,13 +10180,13 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C47">
+      <c r="C47" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="D47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D47" t="e">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C47,Aktivitäten[Id],0)))</f>
-        <v>AKTIVITÄTSDIAGRAMME</v>
+        <v>#N/A</v>
       </c>
       <c r="E47" t="e">
         <f t="shared" ref="E47:AH47" ca="1" si="9">IF(ISERROR(F35),E35,NA())</f>
@@ -10201,9 +10216,9 @@
         <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="M47" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -10297,15 +10312,15 @@
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C48">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" t="str">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C48,Aktivitäten[Id],0)))</f>
-        <v>ERD ERSTELLEN</v>
-      </c>
-      <c r="E48">
+        <v>GUI ENTWERFEN</v>
+      </c>
+      <c r="E48" t="e">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
-        <v>7.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="F48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -10335,9 +10350,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="M48" t="e">
+      <c r="M48">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="N48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -10427,11 +10442,11 @@
     <row r="49" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C49">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="str">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C49,Aktivitäten[Id],0)))</f>
-        <v>GUI ENTWERFEN</v>
+        <v>DOKU AKTUALLISIEREN</v>
       </c>
       <c r="E49" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -10465,9 +10480,9 @@
         <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="M49" t="e">
+      <c r="M49">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="N49" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -10517,9 +10532,9 @@
         <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="Z49">
+      <c r="Z49" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>6.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="AA49" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -10557,11 +10572,11 @@
     <row r="50" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C50">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="str">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C50,Aktivitäten[Id],0)))</f>
-        <v>DOKU AKTUALLISIEREN</v>
+        <v>GUI IN SCENEBUILDER</v>
       </c>
       <c r="E50" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -10623,9 +10638,9 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="T50" t="e">
+      <c r="T50">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="U50" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -10647,9 +10662,9 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="Z50">
+      <c r="Z50" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="AA50" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -10687,11 +10702,11 @@
     <row r="51" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C51">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D51" t="str">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C51,Aktivitäten[Id],0)))</f>
-        <v>GUI IN SCENEBUILDER</v>
+        <v>MODEL IN JAVA IMPLEMENTIEREN</v>
       </c>
       <c r="E51" t="e">
         <f t="shared" ref="E51:AH51" ca="1" si="13">IF(ISERROR(F39),E39,NA())</f>
@@ -10753,9 +10768,9 @@
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="T51" t="e">
+      <c r="T51">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="U51" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -10805,9 +10820,9 @@
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="AG51">
+      <c r="AG51" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>4.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="AH51" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -10817,11 +10832,11 @@
     <row r="52" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C52">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" t="str">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C52,Aktivitäten[Id],0)))</f>
-        <v>MODEL IN JAVA IMPLEMENTIEREN</v>
+        <v/>
       </c>
       <c r="E52" t="e">
         <f t="shared" ref="E52:AH52" ca="1" si="14">IF(ISERROR(F40),E40,NA())</f>
@@ -10903,9 +10918,9 @@
         <f t="shared" ca="1" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="Y52" t="e">
+      <c r="Y52">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
+        <v>3.3000000000000007</v>
       </c>
       <c r="Z52" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -10935,9 +10950,9 @@
         <f t="shared" ca="1" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="AG52">
+      <c r="AG52" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>3.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="AH52" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -10947,123 +10962,123 @@
     <row r="55" spans="3:34" x14ac:dyDescent="0.3">
       <c r="E55" s="1">
         <f>E31</f>
-        <v>42081</v>
+        <v>42094</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ref="F55:AH55" si="15">F31</f>
-        <v>42082</v>
+        <v>42095</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="15"/>
-        <v>42083</v>
+        <v>42096</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="15"/>
-        <v>42084</v>
+        <v>42097</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="15"/>
-        <v>42085</v>
+        <v>42098</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="15"/>
-        <v>42086</v>
+        <v>42099</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="15"/>
-        <v>42087</v>
+        <v>42100</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="15"/>
-        <v>42088</v>
+        <v>42101</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="15"/>
-        <v>42089</v>
+        <v>42102</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="15"/>
-        <v>42090</v>
+        <v>42103</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="15"/>
-        <v>42091</v>
+        <v>42104</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="15"/>
-        <v>42092</v>
+        <v>42105</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="15"/>
-        <v>42093</v>
+        <v>42106</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="15"/>
-        <v>42094</v>
+        <v>42107</v>
       </c>
       <c r="S55" s="1">
         <f t="shared" si="15"/>
-        <v>42095</v>
+        <v>42108</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" si="15"/>
-        <v>42096</v>
+        <v>42109</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="15"/>
-        <v>42097</v>
+        <v>42110</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="15"/>
-        <v>42098</v>
+        <v>42111</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="15"/>
-        <v>42099</v>
+        <v>42112</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" si="15"/>
-        <v>42100</v>
+        <v>42113</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" si="15"/>
-        <v>42101</v>
+        <v>42114</v>
       </c>
       <c r="Z55" s="1">
         <f t="shared" si="15"/>
-        <v>42102</v>
+        <v>42115</v>
       </c>
       <c r="AA55" s="1">
         <f t="shared" si="15"/>
-        <v>42103</v>
+        <v>42116</v>
       </c>
       <c r="AB55" s="1">
         <f t="shared" si="15"/>
-        <v>42104</v>
+        <v>42117</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="15"/>
-        <v>42105</v>
+        <v>42118</v>
       </c>
       <c r="AD55" s="1">
         <f t="shared" si="15"/>
-        <v>42106</v>
+        <v>42119</v>
       </c>
       <c r="AE55" s="1">
         <f t="shared" si="15"/>
-        <v>42107</v>
+        <v>42120</v>
       </c>
       <c r="AF55" s="1">
         <f t="shared" si="15"/>
-        <v>42108</v>
+        <v>42121</v>
       </c>
       <c r="AG55" s="1">
         <f t="shared" si="15"/>
-        <v>42109</v>
+        <v>42122</v>
       </c>
       <c r="AH55" s="1">
         <f t="shared" si="15"/>
-        <v>42110</v>
+        <v>42123</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.3">
@@ -11146,21 +11161,21 @@
         <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="X56">
+      <c r="X56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA56">
         <f t="shared" ca="1" si="16"/>
         <v>5</v>
-      </c>
-      <c r="Y56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
       </c>
       <c r="AB56" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -11200,57 +11215,57 @@
         <f>IF(MEDIAN($D58,E$55,EOMONTH($D58,0))=E$55,0.5,NA())</f>
         <v>0.5</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="e">
         <f t="shared" ref="F58:AH58" si="17">IF(MEDIAN($D58,F$55,EOMONTH($D58,0))=F$55,0.5,NA())</f>
-        <v>0.5</v>
-      </c>
-      <c r="G58">
+        <v>#N/A</v>
+      </c>
+      <c r="G58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="H58">
+        <v>#N/A</v>
+      </c>
+      <c r="H58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="I58">
+        <v>#N/A</v>
+      </c>
+      <c r="I58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="J58">
+        <v>#N/A</v>
+      </c>
+      <c r="J58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="K58">
+        <v>#N/A</v>
+      </c>
+      <c r="K58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="L58">
+        <v>#N/A</v>
+      </c>
+      <c r="L58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="M58">
+        <v>#N/A</v>
+      </c>
+      <c r="M58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="N58">
+        <v>#N/A</v>
+      </c>
+      <c r="N58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="O58">
+        <v>#N/A</v>
+      </c>
+      <c r="O58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="P58">
+        <v>#N/A</v>
+      </c>
+      <c r="P58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q58">
+        <v>#N/A</v>
+      </c>
+      <c r="Q58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="R58">
+        <v>#N/A</v>
+      </c>
+      <c r="R58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="S58" t="e">
         <f t="shared" si="17"/>
@@ -11326,57 +11341,57 @@
         <f>E58+12.5</f>
         <v>13</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="e">
         <f t="shared" ref="F59:AH59" si="18">F58+12.5</f>
-        <v>13</v>
-      </c>
-      <c r="G59">
+        <v>#N/A</v>
+      </c>
+      <c r="G59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="H59">
+        <v>#N/A</v>
+      </c>
+      <c r="H59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="I59">
+        <v>#N/A</v>
+      </c>
+      <c r="I59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="J59">
+        <v>#N/A</v>
+      </c>
+      <c r="J59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="K59">
+        <v>#N/A</v>
+      </c>
+      <c r="K59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="L59">
+        <v>#N/A</v>
+      </c>
+      <c r="L59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="M59">
+        <v>#N/A</v>
+      </c>
+      <c r="M59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="N59">
+        <v>#N/A</v>
+      </c>
+      <c r="N59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="O59">
+        <v>#N/A</v>
+      </c>
+      <c r="O59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="P59">
+        <v>#N/A</v>
+      </c>
+      <c r="P59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="Q59">
+        <v>#N/A</v>
+      </c>
+      <c r="Q59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="R59">
+        <v>#N/A</v>
+      </c>
+      <c r="R59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="S59" t="e">
         <f t="shared" si="18"/>
@@ -11455,57 +11470,57 @@
         <f>IF(MEDIAN($D61,E$55,EOMONTH($D61,0))=E$55,0.5,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F61" t="e">
+      <c r="F61">
         <f t="shared" ref="F61:AH61" si="19">IF(MEDIAN($D61,F$55,EOMONTH($D61,0))=F$55,0.5,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="H61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="M61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="N61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="Q61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="R61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="S61">
         <f t="shared" si="19"/>
@@ -11581,57 +11596,57 @@
         <f>E61+12.5</f>
         <v>#N/A</v>
       </c>
-      <c r="F62" t="e">
+      <c r="F62">
         <f t="shared" ref="F62:AH62" si="20">F61+12.5</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G62" t="e">
+        <v>13</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H62" t="e">
+        <v>13</v>
+      </c>
+      <c r="H62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I62" t="e">
+        <v>13</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J62" t="e">
+        <v>13</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K62" t="e">
+        <v>13</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L62" t="e">
+        <v>13</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M62" t="e">
+        <v>13</v>
+      </c>
+      <c r="M62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N62" t="e">
+        <v>13</v>
+      </c>
+      <c r="N62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O62" t="e">
+        <v>13</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P62" t="e">
+        <v>13</v>
+      </c>
+      <c r="P62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q62" t="e">
+        <v>13</v>
+      </c>
+      <c r="Q62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R62" t="e">
+        <v>13</v>
+      </c>
+      <c r="R62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="S62">
         <f t="shared" si="20"/>
@@ -11840,9 +11855,9 @@
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="G66" t="e">
+      <c r="G66">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="e">
         <f t="shared" si="21"/>
@@ -11892,9 +11907,9 @@
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="T66">
+      <c r="T66" t="e">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="U66" t="e">
         <f t="shared" si="21"/>
@@ -12080,123 +12095,123 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" ref="E70:AH70" si="23">LEFT(UPPER(TEXT(E55,"TTT")),$D70)</f>
-        <v>MI</v>
+        <v>DI</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="23"/>
-        <v>DO</v>
+        <v>MI</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="23"/>
-        <v>FR</v>
+        <v>DO</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="23"/>
-        <v>SA</v>
+        <v>FR</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>SA</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="23"/>
-        <v>MO</v>
+        <v>SO</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="23"/>
-        <v>DI</v>
+        <v>MO</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="23"/>
-        <v>MI</v>
+        <v>DI</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="23"/>
-        <v>DO</v>
+        <v>MI</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="23"/>
-        <v>FR</v>
+        <v>DO</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="23"/>
-        <v>SA</v>
+        <v>FR</v>
       </c>
       <c r="P70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>SA</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="23"/>
-        <v>MO</v>
+        <v>SO</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="23"/>
-        <v>DI</v>
+        <v>MO</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" si="23"/>
-        <v>MI</v>
+        <v>DI</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" si="23"/>
-        <v>DO</v>
+        <v>MI</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="23"/>
-        <v>FR</v>
+        <v>DO</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="23"/>
-        <v>SA</v>
+        <v>FR</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>SA</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="23"/>
-        <v>MO</v>
+        <v>SO</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="23"/>
-        <v>DI</v>
+        <v>MO</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" si="23"/>
-        <v>MI</v>
+        <v>DI</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="23"/>
-        <v>DO</v>
+        <v>MI</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" si="23"/>
-        <v>FR</v>
+        <v>DO</v>
       </c>
       <c r="AC70" t="str">
         <f t="shared" si="23"/>
-        <v>SA</v>
+        <v>FR</v>
       </c>
       <c r="AD70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>SA</v>
       </c>
       <c r="AE70" t="str">
         <f t="shared" si="23"/>
-        <v>MO</v>
+        <v>SO</v>
       </c>
       <c r="AF70" t="str">
         <f t="shared" si="23"/>
-        <v>DI</v>
+        <v>MO</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="23"/>
-        <v>MI</v>
+        <v>DI</v>
       </c>
       <c r="AH70" t="str">
         <f t="shared" si="23"/>
-        <v>DO</v>
+        <v>MI</v>
       </c>
     </row>
     <row r="71" spans="4:34" x14ac:dyDescent="0.3">
@@ -12323,123 +12338,123 @@
     <row r="72" spans="4:34" x14ac:dyDescent="0.3">
       <c r="E72" t="str">
         <f>TEXT(E55,"TT")</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F72" t="str">
         <f>TEXT(F55,"TT")</f>
-        <v>19</v>
+        <v>01</v>
       </c>
       <c r="G72" t="str">
         <f>TEXT(G55,"TT")</f>
-        <v>20</v>
+        <v>02</v>
       </c>
       <c r="H72" t="str">
         <f>TEXT(H55,"TT")</f>
-        <v>21</v>
+        <v>03</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" ref="I72:AH72" si="24">TEXT(I55,"TT")</f>
-        <v>22</v>
+        <v>04</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="24"/>
-        <v>23</v>
+        <v>05</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>06</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>07</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="24"/>
-        <v>26</v>
+        <v>08</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>09</v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="P72" t="str">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="R72" t="str">
         <f t="shared" si="24"/>
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" si="24"/>
-        <v>01</v>
+        <v>14</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="24"/>
-        <v>02</v>
+        <v>15</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="24"/>
-        <v>03</v>
+        <v>16</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="24"/>
-        <v>04</v>
+        <v>17</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="24"/>
-        <v>05</v>
+        <v>18</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="24"/>
-        <v>06</v>
+        <v>19</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="24"/>
-        <v>07</v>
+        <v>20</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" si="24"/>
-        <v>08</v>
+        <v>21</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="24"/>
-        <v>09</v>
+        <v>22</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AD72" t="str">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE72" t="str">
         <f t="shared" si="24"/>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AH72" t="str">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planung/01_Dokumente/Zeitplan.xlsx
+++ b/01_Planung/01_Dokumente/Zeitplan.xlsx
@@ -128,9 +128,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -246,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,20 +306,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -496,94 +492,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>42094</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="14">
                   <c:v>42095</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>42096</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>42097</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="17">
                   <c:v>42098</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="18">
                   <c:v>42099</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="19">
                   <c:v>42100</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="20">
                   <c:v>42101</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="21">
                   <c:v>42102</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="22">
                   <c:v>42103</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="23">
                   <c:v>42104</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="24">
                   <c:v>42105</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="25">
                   <c:v>42106</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
                   <c:v>42107</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>42108</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
                   <c:v>42109</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="29">
                   <c:v>42110</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42111</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42112</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42113</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42114</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42115</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42116</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42117</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42118</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42119</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42120</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42121</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42122</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,94 +883,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>42094</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="14">
                   <c:v>42095</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>42096</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>42097</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="17">
                   <c:v>42098</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="18">
                   <c:v>42099</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="19">
                   <c:v>42100</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="20">
                   <c:v>42101</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="21">
                   <c:v>42102</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="22">
                   <c:v>42103</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="23">
                   <c:v>42104</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="24">
                   <c:v>42105</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="25">
                   <c:v>42106</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
                   <c:v>42107</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>42108</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
                   <c:v>42109</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="29">
                   <c:v>42110</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42111</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42112</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42113</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42114</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42115</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42116</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42117</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42118</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42119</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42120</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42121</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42122</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,7 +982,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1089,7 +1085,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#NV</c:v>
+                  <c:v>USECASE BESCHRIEB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1138,7 +1134,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1278,94 +1274,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>42094</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="14">
                   <c:v>42095</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>42096</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>42097</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="17">
                   <c:v>42098</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="18">
                   <c:v>42099</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="19">
                   <c:v>42100</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="20">
                   <c:v>42101</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="21">
                   <c:v>42102</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="22">
                   <c:v>42103</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="23">
                   <c:v>42104</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="24">
                   <c:v>42105</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="25">
                   <c:v>42106</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
                   <c:v>42107</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>42108</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
                   <c:v>42109</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="29">
                   <c:v>42110</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42111</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42112</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42113</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42114</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42115</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42116</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42117</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42118</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42119</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42120</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42121</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42122</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,28 +1373,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -1480,7 +1476,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#NV</c:v>
+                  <c:v>USECASE DIAGRAMM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1553,7 +1549,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -1672,94 +1668,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>42094</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="14">
                   <c:v>42095</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>42096</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>42097</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="17">
                   <c:v>42098</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="18">
                   <c:v>42099</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="19">
                   <c:v>42100</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="20">
                   <c:v>42101</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="21">
                   <c:v>42102</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="22">
                   <c:v>42103</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="23">
                   <c:v>42104</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="24">
                   <c:v>42105</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="25">
                   <c:v>42106</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
                   <c:v>42107</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>42108</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
                   <c:v>42109</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="29">
                   <c:v>42110</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42111</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42112</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42113</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42114</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42115</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42116</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42117</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42118</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42119</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42120</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42121</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42122</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,28 +1767,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -1874,7 +1870,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#NV</c:v>
+                  <c:v>AKTIVITÄTSDIAGRAMME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1944,7 +1940,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -2063,94 +2059,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>42094</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="14">
                   <c:v>42095</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>42096</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>42097</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="17">
                   <c:v>42098</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="18">
                   <c:v>42099</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="19">
                   <c:v>42100</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="20">
                   <c:v>42101</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="21">
                   <c:v>42102</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="22">
                   <c:v>42103</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="23">
                   <c:v>42104</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="24">
                   <c:v>42105</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="25">
                   <c:v>42106</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
                   <c:v>42107</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>42108</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
                   <c:v>42109</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="29">
                   <c:v>42110</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42111</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42112</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42113</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42114</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42115</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42116</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42117</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42118</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42119</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42120</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42121</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42122</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,28 +2161,28 @@
                   <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#N/A</c:v>
@@ -2265,7 +2261,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUI ENTWERFEN</c:v>
+                  <c:v>ERD ERSTELLEN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2287,6 +2283,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2310,6 +2307,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2344,7 +2342,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2368,7 +2366,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>#N/A</c:v>
@@ -2487,22 +2485,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.3000000000000007</c:v>
@@ -2511,43 +2509,43 @@
                   <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -2587,7 +2585,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DOKU AKTUALLISIEREN</c:v>
+                  <c:v>GUI ENTWERFEN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2660,46 +2658,46 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>6.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -2800,22 +2798,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.3000000000000007</c:v>
@@ -2824,22 +2822,22 @@
                   <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -2879,7 +2877,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUI IN SCENEBUILDER</c:v>
+                  <c:v>DOKU AKTUALLISIEREN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2973,25 +2971,25 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>5.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -3092,67 +3090,67 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="22">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="23">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="24">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="25">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
                   <c:v>4.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -3171,7 +3169,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MODEL IN JAVA IMPLEMENTIEREN</c:v>
+                  <c:v>GUI IN SCENEBUILDER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3268,46 +3266,46 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>4.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -3417,37 +3415,37 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>3.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>3.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>3.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -3465,6 +3463,9 @@
               <c:f>calcs!$D$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MODEL IN JAVA IMPLEMENTIEREN</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3572,31 +3573,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -3695,7 +3696,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>#N/A</c:v>
@@ -3704,7 +3705,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>#N/A</c:v>
@@ -3766,43 +3767,43 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>#N/A</c:v>
@@ -3891,43 +3892,43 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.5</c:v>
@@ -4049,46 +4050,46 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>#N/A</c:v>
@@ -4337,6 +4338,526 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>18</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{BC90F681-F5E4-4D70-9000-236FA52A816A}</c15:txfldGUID>
+                      <c15:f>calcs!$E$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>18</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$F$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>19</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{CFB85CA6-6B34-45CF-BD61-731C6F07C41E}</c15:txfldGUID>
+                      <c15:f>calcs!$F$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>19</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$G$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>20</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{5839D9D3-C600-4077-A2B2-46A8942BA94B}</c15:txfldGUID>
+                      <c15:f>calcs!$G$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>20</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$H$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>21</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{D608428B-BB5E-4032-B22F-0C1428184775}</c15:txfldGUID>
+                      <c15:f>calcs!$H$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>21</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$I$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>22</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{BEDB02E7-9074-4972-8CFC-352DBB4CC7FA}</c15:txfldGUID>
+                      <c15:f>calcs!$I$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>22</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$J$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>23</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{CD0C3B6D-4E5D-4994-9568-78470C3AD9DE}</c15:txfldGUID>
+                      <c15:f>calcs!$J$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>23</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$K$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>24</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{E58758B6-2194-49B9-82B7-E1A7C7EAB837}</c15:txfldGUID>
+                      <c15:f>calcs!$K$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>24</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$L$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>25</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{CCD26EE7-74F6-4FE5-87DA-EC42332F3358}</c15:txfldGUID>
+                      <c15:f>calcs!$L$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>25</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$M$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>26</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{4FC5E2A9-922E-41D5-9673-C243D5B8A977}</c15:txfldGUID>
+                      <c15:f>calcs!$M$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>26</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$N$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>27</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{F9740504-AE45-4293-9C8C-3A48D258CB71}</c15:txfldGUID>
+                      <c15:f>calcs!$N$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>27</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$O$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>28</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{6A8D0808-3FE1-4C83-BDB0-A675FFD30F4D}</c15:txfldGUID>
+                      <c15:f>calcs!$O$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>28</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$P$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>29</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{D631FE1A-E8E8-4E96-8DFD-6559A55E2F71}</c15:txfldGUID>
+                      <c15:f>calcs!$P$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>29</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$Q$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>30</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{89CF4C45-47C1-4CCA-B894-4550A8055AB9}</c15:txfldGUID>
+                      <c15:f>calcs!$Q$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>30</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$R$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>31</c:v>
                     </c:pt>
                   </c:strCache>
@@ -4354,8 +4875,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{700E31EC-ED16-4526-AA99-0458051B1528}</c15:txfldGUID>
-                      <c15:f>calcs!$E$72</c15:f>
+                      <c15:txfldGUID>{A200A54F-4CA0-4950-9E96-B6DF1BE7A57F}</c15:txfldGUID>
+                      <c15:f>calcs!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4369,11 +4890,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$F$72</c:f>
+                  <c:f>calcs!$S$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4394,8 +4915,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{35842101-A6B5-418E-9164-D9B0B2937552}</c15:txfldGUID>
-                      <c15:f>calcs!$F$72</c15:f>
+                      <c15:txfldGUID>{6D2B76A4-1DCA-4F4E-ADCF-5B2008C5F3B6}</c15:txfldGUID>
+                      <c15:f>calcs!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4409,11 +4930,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$G$72</c:f>
+                  <c:f>calcs!$T$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4434,8 +4955,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{703C590B-0E55-483A-B08C-F14BD57E250B}</c15:txfldGUID>
-                      <c15:f>calcs!$G$72</c15:f>
+                      <c15:txfldGUID>{53498652-A16D-4E4D-8D59-29602A1CCFBE}</c15:txfldGUID>
+                      <c15:f>calcs!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4449,11 +4970,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$H$72</c:f>
+                  <c:f>calcs!$U$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4474,8 +4995,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A395EAE1-A828-428E-AF29-25BB1C7398A2}</c15:txfldGUID>
-                      <c15:f>calcs!$H$72</c15:f>
+                      <c15:txfldGUID>{B28BE9E6-1B02-4B25-A136-B6EEE4584F47}</c15:txfldGUID>
+                      <c15:f>calcs!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4489,11 +5010,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$I$72</c:f>
+                  <c:f>calcs!$V$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4514,8 +5035,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D6C5963B-7D2C-4810-A5E6-61017DE56D94}</c15:txfldGUID>
-                      <c15:f>calcs!$I$72</c15:f>
+                      <c15:txfldGUID>{D54EF92B-3A87-424E-BA27-03A0214A5BD7}</c15:txfldGUID>
+                      <c15:f>calcs!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4529,11 +5050,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$J$72</c:f>
+                  <c:f>calcs!$W$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4554,8 +5075,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{61ACE0AD-B245-40C5-836A-5A097A3E16AA}</c15:txfldGUID>
-                      <c15:f>calcs!$J$72</c15:f>
+                      <c15:txfldGUID>{6F87E670-1028-4542-8C69-165924075997}</c15:txfldGUID>
+                      <c15:f>calcs!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4569,11 +5090,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$K$72</c:f>
+                  <c:f>calcs!$X$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4594,8 +5115,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{59158712-BD79-4CD7-A9CB-57360F5A88A4}</c15:txfldGUID>
-                      <c15:f>calcs!$K$72</c15:f>
+                      <c15:txfldGUID>{E9102AAA-24CA-4DBF-A4C2-3AF578A332F8}</c15:txfldGUID>
+                      <c15:f>calcs!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4609,11 +5130,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$L$72</c:f>
+                  <c:f>calcs!$Y$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4634,8 +5155,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B84CDC3D-7340-4CF0-A2F7-F348F68869A9}</c15:txfldGUID>
-                      <c15:f>calcs!$L$72</c15:f>
+                      <c15:txfldGUID>{C9995E84-6844-41ED-AB79-759E73897A72}</c15:txfldGUID>
+                      <c15:f>calcs!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4649,11 +5170,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$M$72</c:f>
+                  <c:f>calcs!$Z$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4674,8 +5195,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B65A2B9D-405E-4BE4-8BE4-D8101AEC495A}</c15:txfldGUID>
-                      <c15:f>calcs!$M$72</c15:f>
+                      <c15:txfldGUID>{2955F403-BE40-4D9A-84B3-42DE9054E4A3}</c15:txfldGUID>
+                      <c15:f>calcs!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4689,11 +5210,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$N$72</c:f>
+                  <c:f>calcs!$AA$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4714,8 +5235,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1692409A-BDE3-4543-8ABD-4D022636444A}</c15:txfldGUID>
-                      <c15:f>calcs!$N$72</c15:f>
+                      <c15:txfldGUID>{14A51F8F-D20F-4270-97FE-EAF9D01B8D6B}</c15:txfldGUID>
+                      <c15:f>calcs!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4729,11 +5250,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$O$72</c:f>
+                  <c:f>calcs!$AB$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4754,8 +5275,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5670B7E2-6442-4EE9-A23F-085969C3DED5}</c15:txfldGUID>
-                      <c15:f>calcs!$O$72</c15:f>
+                      <c15:txfldGUID>{BEE113BA-BA11-47BA-A02C-002C37F67ECE}</c15:txfldGUID>
+                      <c15:f>calcs!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4769,11 +5290,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$P$72</c:f>
+                  <c:f>calcs!$AC$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4794,8 +5315,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D67A97A1-2819-4BEB-A60E-1BD3DC8BB7FD}</c15:txfldGUID>
-                      <c15:f>calcs!$P$72</c15:f>
+                      <c15:txfldGUID>{586613B1-EC05-4966-AA76-FE0FCAEC90D0}</c15:txfldGUID>
+                      <c15:f>calcs!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4809,11 +5330,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Q$72</c:f>
+                  <c:f>calcs!$AD$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4834,8 +5355,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5CF79856-DA92-4C0F-9942-B778BB9257A7}</c15:txfldGUID>
-                      <c15:f>calcs!$Q$72</c15:f>
+                      <c15:txfldGUID>{A169107A-5C6A-4AA9-87A3-AC82226FCD98}</c15:txfldGUID>
+                      <c15:f>calcs!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4849,11 +5370,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$R$72</c:f>
+                  <c:f>calcs!$AE$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4874,8 +5395,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{776B26D5-1B33-456C-B967-0393763B75DB}</c15:txfldGUID>
-                      <c15:f>calcs!$R$72</c15:f>
+                      <c15:txfldGUID>{F2B9EEF4-BA6E-4490-A04B-A0CDFC75C25F}</c15:txfldGUID>
+                      <c15:f>calcs!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4889,11 +5410,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$S$72</c:f>
+                  <c:f>calcs!$AF$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4914,8 +5435,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BD30809E-7CFB-461C-B59E-CB852FE4F86D}</c15:txfldGUID>
-                      <c15:f>calcs!$S$72</c15:f>
+                      <c15:txfldGUID>{923AE48D-C75E-4D6A-885F-DE73835B254B}</c15:txfldGUID>
+                      <c15:f>calcs!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4929,11 +5450,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$T$72</c:f>
+                  <c:f>calcs!$AG$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4954,8 +5475,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{76E63239-CF3C-4E9A-A512-C039638EF403}</c15:txfldGUID>
-                      <c15:f>calcs!$T$72</c15:f>
+                      <c15:txfldGUID>{8C2C2C83-5E44-4F72-BB3A-501694789AFF}</c15:txfldGUID>
+                      <c15:f>calcs!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4969,11 +5490,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$U$72</c:f>
+                  <c:f>calcs!$AH$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4994,532 +5515,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7CF769AF-4227-438F-936A-2AB715C1650A}</c15:txfldGUID>
-                      <c15:f>calcs!$U$72</c15:f>
+                      <c15:txfldGUID>{DC60198C-87AA-43C3-B587-AEA75DE71770}</c15:txfldGUID>
+                      <c15:f>calcs!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>16</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$V$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>17</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F801AFCF-DD4C-4525-ADAF-5D987C39826E}</c15:txfldGUID>
-                      <c15:f>calcs!$V$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>17</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$W$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>18</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DDCC6722-0933-40E4-BD6D-DA5071C6D2E7}</c15:txfldGUID>
-                      <c15:f>calcs!$W$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>18</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$X$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>19</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9A501612-2223-402C-B131-AD9ECD78D4FB}</c15:txfldGUID>
-                      <c15:f>calcs!$X$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>19</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$Y$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>20</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1726EDD2-0713-4504-891D-69D90CA28C8E}</c15:txfldGUID>
-                      <c15:f>calcs!$Y$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>20</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$Z$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>21</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3E100D06-CF19-4F61-BF39-939609F6E025}</c15:txfldGUID>
-                      <c15:f>calcs!$Z$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>21</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AA$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>22</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AC2724BE-93D1-4822-AF57-4BEC9FD8F278}</c15:txfldGUID>
-                      <c15:f>calcs!$AA$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>22</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AB$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>23</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B3070F15-FB03-4308-927E-8B70170B8019}</c15:txfldGUID>
-                      <c15:f>calcs!$AB$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>23</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AC$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>24</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{18F5F4B6-0994-4C6C-9560-1D0827511BB5}</c15:txfldGUID>
-                      <c15:f>calcs!$AC$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>24</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AD$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>25</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B876A707-3705-4597-8F27-41D76B689E7C}</c15:txfldGUID>
-                      <c15:f>calcs!$AD$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>25</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AE$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>26</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D0303543-8F35-4BE3-B3FB-B7C7EE73B4B1}</c15:txfldGUID>
-                      <c15:f>calcs!$AE$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>26</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AF$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>27</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7BF1ECAB-FCEB-40E5-91AE-4445D1424DA3}</c15:txfldGUID>
-                      <c15:f>calcs!$AF$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>27</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AG$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>28</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{27EB2B34-DBCA-468C-9CDF-C2CC4AFB82AD}</c15:txfldGUID>
-                      <c15:f>calcs!$AG$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>28</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AH$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>29</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{40805C04-515D-4B29-B766-BD1978C6D786}</c15:txfldGUID>
-                      <c15:f>calcs!$AH$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>29</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5684,6 +5685,246 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>MI</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{A9F6E32B-8DEC-4E65-92EA-8D2ADF60E843}</c15:txfldGUID>
+                      <c15:f>calcs!$E$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>MI</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$F$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>DO</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{FD0CCDF1-0260-420E-B3F1-C560CD5265CC}</c15:txfldGUID>
+                      <c15:f>calcs!$F$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>DO</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$G$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>FR</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{6850BD89-82CC-45CF-B006-8B52AFB254C7}</c15:txfldGUID>
+                      <c15:f>calcs!$G$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>FR</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$H$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>SA</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{F81C8341-6476-4803-B66D-DF28E060D38B}</c15:txfldGUID>
+                      <c15:f>calcs!$H$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>SA</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$I$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>SO</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{06C97D7B-30CC-45A1-A908-33DC12AEE6B2}</c15:txfldGUID>
+                      <c15:f>calcs!$I$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>SO</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$J$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>MO</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{317B8607-A660-4F96-858F-2D9F60395143}</c15:txfldGUID>
+                      <c15:f>calcs!$J$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>MO</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$K$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>DI</c:v>
                     </c:pt>
                   </c:strCache>
@@ -5701,8 +5942,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C6252D71-6D25-4212-9088-36CE765AD092}</c15:txfldGUID>
-                      <c15:f>calcs!$E$70</c15:f>
+                      <c15:txfldGUID>{876C231E-EC20-4511-BC7E-7F5CCBB79B14}</c15:txfldGUID>
+                      <c15:f>calcs!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5716,11 +5957,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="7"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$F$70</c:f>
+                  <c:f>calcs!$L$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5741,8 +5982,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C4AE162E-31D8-4081-A340-678845E54C11}</c15:txfldGUID>
-                      <c15:f>calcs!$F$70</c15:f>
+                      <c15:txfldGUID>{8B0CC3D8-E642-4355-A478-ED5AEE5FBD68}</c15:txfldGUID>
+                      <c15:f>calcs!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5756,11 +5997,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="8"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$G$70</c:f>
+                  <c:f>calcs!$M$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5781,8 +6022,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B5A94C9E-8176-4AC7-B685-4AB59B2B9283}</c15:txfldGUID>
-                      <c15:f>calcs!$G$70</c15:f>
+                      <c15:txfldGUID>{559ED387-C042-4D9C-9255-AF885ED74056}</c15:txfldGUID>
+                      <c15:f>calcs!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5796,11 +6037,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="9"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$H$70</c:f>
+                  <c:f>calcs!$N$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5821,8 +6062,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3ECF1A1C-BE3C-4E2E-9189-599A21C7837E}</c15:txfldGUID>
-                      <c15:f>calcs!$H$70</c15:f>
+                      <c15:txfldGUID>{D10AAA77-C992-4EFD-8DEE-E215CF8E840C}</c15:txfldGUID>
+                      <c15:f>calcs!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5836,11 +6077,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$I$70</c:f>
+                  <c:f>calcs!$O$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5861,8 +6102,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FF295A6F-20AE-4837-B87C-16803BAE5511}</c15:txfldGUID>
-                      <c15:f>calcs!$I$70</c15:f>
+                      <c15:txfldGUID>{21DA09EB-F2AB-4554-8CEB-DA837231D256}</c15:txfldGUID>
+                      <c15:f>calcs!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5876,11 +6117,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="11"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$J$70</c:f>
+                  <c:f>calcs!$P$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5901,8 +6142,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FEFA86E7-3F8F-4370-B08F-0051A5259489}</c15:txfldGUID>
-                      <c15:f>calcs!$J$70</c15:f>
+                      <c15:txfldGUID>{37435261-55BA-4F0D-AE3C-9479D7F6CBF2}</c15:txfldGUID>
+                      <c15:f>calcs!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5916,11 +6157,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="12"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$K$70</c:f>
+                  <c:f>calcs!$Q$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5941,8 +6182,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9C9E98D8-2EBD-4F66-8C1A-94199527CA20}</c15:txfldGUID>
-                      <c15:f>calcs!$K$70</c15:f>
+                      <c15:txfldGUID>{79A40BAC-5842-45EC-A70B-ECFF467AD47E}</c15:txfldGUID>
+                      <c15:f>calcs!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5956,11 +6197,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="13"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$L$70</c:f>
+                  <c:f>calcs!$R$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5981,8 +6222,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{51F68737-5B16-472C-9B44-08814649A54F}</c15:txfldGUID>
-                      <c15:f>calcs!$L$70</c15:f>
+                      <c15:txfldGUID>{CAE1EE4F-D377-4955-BE9B-53C397D99D6F}</c15:txfldGUID>
+                      <c15:f>calcs!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5996,11 +6237,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$M$70</c:f>
+                  <c:f>calcs!$S$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6021,8 +6262,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A1299415-F46D-4708-ACFD-044607561627}</c15:txfldGUID>
-                      <c15:f>calcs!$M$70</c15:f>
+                      <c15:txfldGUID>{C894E004-6201-4C71-AF5D-72EF92FED957}</c15:txfldGUID>
+                      <c15:f>calcs!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6036,11 +6277,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$N$70</c:f>
+                  <c:f>calcs!$T$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6061,8 +6302,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A6585A42-ACCC-4CEB-9F2E-24F71CBC54CF}</c15:txfldGUID>
-                      <c15:f>calcs!$N$70</c15:f>
+                      <c15:txfldGUID>{7D69F40B-13A3-4028-97E1-150474F85BBC}</c15:txfldGUID>
+                      <c15:f>calcs!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6076,11 +6317,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$O$70</c:f>
+                  <c:f>calcs!$U$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6101,8 +6342,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{079AA3A3-7E24-4C12-BFBA-34A7B5A5F4AE}</c15:txfldGUID>
-                      <c15:f>calcs!$O$70</c15:f>
+                      <c15:txfldGUID>{75EE6A9C-014B-4E03-995E-3B021AF140BB}</c15:txfldGUID>
+                      <c15:f>calcs!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6116,11 +6357,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$P$70</c:f>
+                  <c:f>calcs!$V$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6141,8 +6382,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5FB60D58-B853-420A-B419-70D617691308}</c15:txfldGUID>
-                      <c15:f>calcs!$P$70</c15:f>
+                      <c15:txfldGUID>{5A950661-7EDF-42A7-9932-04C57489BEA5}</c15:txfldGUID>
+                      <c15:f>calcs!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6156,11 +6397,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Q$70</c:f>
+                  <c:f>calcs!$W$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6181,8 +6422,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{033F9DC8-CF5C-4792-A985-37E05E20E72D}</c15:txfldGUID>
-                      <c15:f>calcs!$Q$70</c15:f>
+                      <c15:txfldGUID>{A45BC186-B1E9-4404-8CBA-9E96D2623E56}</c15:txfldGUID>
+                      <c15:f>calcs!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6196,11 +6437,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$R$70</c:f>
+                  <c:f>calcs!$X$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6221,8 +6462,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4ECE4373-E52F-49F4-A61D-893C0C836923}</c15:txfldGUID>
-                      <c15:f>calcs!$R$70</c15:f>
+                      <c15:txfldGUID>{8DD47DDD-B254-48BA-ADF8-F34F00E9C3D8}</c15:txfldGUID>
+                      <c15:f>calcs!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6236,11 +6477,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$S$70</c:f>
+                  <c:f>calcs!$Y$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6261,8 +6502,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A90F68CD-767E-481D-8138-E5054CD04826}</c15:txfldGUID>
-                      <c15:f>calcs!$S$70</c15:f>
+                      <c15:txfldGUID>{EB92FD16-D8EA-4269-9CEA-C5DD268B4BA3}</c15:txfldGUID>
+                      <c15:f>calcs!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6276,11 +6517,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$T$70</c:f>
+                  <c:f>calcs!$Z$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6301,8 +6542,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B68C2E60-0E1B-48A3-BEBB-D72CAD95DD39}</c15:txfldGUID>
-                      <c15:f>calcs!$T$70</c15:f>
+                      <c15:txfldGUID>{7F60E9A5-A304-4162-A9B4-2487A168788A}</c15:txfldGUID>
+                      <c15:f>calcs!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6316,11 +6557,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$U$70</c:f>
+                  <c:f>calcs!$AA$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6341,8 +6582,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E6C0B084-291E-42F1-9D05-C2F8441E9B19}</c15:txfldGUID>
-                      <c15:f>calcs!$U$70</c15:f>
+                      <c15:txfldGUID>{93FF1D6B-6F72-4822-BF02-0FFFAFF8AD61}</c15:txfldGUID>
+                      <c15:f>calcs!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6356,11 +6597,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$V$70</c:f>
+                  <c:f>calcs!$AB$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6381,8 +6622,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{31717F99-1A05-426C-901A-B23C09EEADC9}</c15:txfldGUID>
-                      <c15:f>calcs!$V$70</c15:f>
+                      <c15:txfldGUID>{16527CE4-A711-49C0-94B7-DE8B3909FE57}</c15:txfldGUID>
+                      <c15:f>calcs!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6396,11 +6637,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$W$70</c:f>
+                  <c:f>calcs!$AC$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6421,8 +6662,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{69222EB1-592A-4481-BB74-3F08D22B4E0B}</c15:txfldGUID>
-                      <c15:f>calcs!$W$70</c15:f>
+                      <c15:txfldGUID>{D19BF2D2-852E-41B4-AEF4-AC873516952B}</c15:txfldGUID>
+                      <c15:f>calcs!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6436,11 +6677,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$X$70</c:f>
+                  <c:f>calcs!$AD$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6461,8 +6702,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{494A71C4-EF24-419A-99FF-38EE5641E6E7}</c15:txfldGUID>
-                      <c15:f>calcs!$X$70</c15:f>
+                      <c15:txfldGUID>{9E5D0A9E-13B0-4669-B876-D90FD61C0AC0}</c15:txfldGUID>
+                      <c15:f>calcs!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6476,11 +6717,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Y$70</c:f>
+                  <c:f>calcs!$AE$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6501,8 +6742,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FA78571F-7722-4C18-9D8E-3D23E0803B38}</c15:txfldGUID>
-                      <c15:f>calcs!$Y$70</c15:f>
+                      <c15:txfldGUID>{0721921E-B676-4B91-A387-617C2B52F092}</c15:txfldGUID>
+                      <c15:f>calcs!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6516,11 +6757,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Z$70</c:f>
+                  <c:f>calcs!$AF$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6541,8 +6782,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{297D14AC-C62A-4C52-AED9-CE8AD1BFBD7C}</c15:txfldGUID>
-                      <c15:f>calcs!$Z$70</c15:f>
+                      <c15:txfldGUID>{6C512479-BA8F-4056-BADC-9F7F604F5CBF}</c15:txfldGUID>
+                      <c15:f>calcs!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6556,11 +6797,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AA$70</c:f>
+                  <c:f>calcs!$AG$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6581,8 +6822,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F161D356-5CB9-449E-AB79-B0C45639A9E3}</c15:txfldGUID>
-                      <c15:f>calcs!$AA$70</c15:f>
+                      <c15:txfldGUID>{EF77DF6D-B6F3-4242-842F-BFDEE5F714C5}</c15:txfldGUID>
+                      <c15:f>calcs!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6596,11 +6837,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AB$70</c:f>
+                  <c:f>calcs!$AH$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6621,252 +6862,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7AA0B553-02C2-4D7D-9EC4-56AA5D86BFBC}</c15:txfldGUID>
-                      <c15:f>calcs!$AB$70</c15:f>
+                      <c15:txfldGUID>{DE4EC032-A849-457D-847B-A70BDB73E641}</c15:txfldGUID>
+                      <c15:f>calcs!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>DO</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AC$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>FR</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A200A672-7F62-45BD-875C-9448C9FB04BF}</c15:txfldGUID>
-                      <c15:f>calcs!$AC$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>FR</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AD$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>SA</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5439FB7E-5AA2-4697-9BF5-62157F64EDF7}</c15:txfldGUID>
-                      <c15:f>calcs!$AD$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>SA</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AE$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>SO</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{39264D81-BC1C-45CF-BA29-7DEAF4988E46}</c15:txfldGUID>
-                      <c15:f>calcs!$AE$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>SO</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AF$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>MO</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{02F0E403-3750-41E4-A61B-6C1576B0BE76}</c15:txfldGUID>
-                      <c15:f>calcs!$AF$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>MO</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AG$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>DI</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8EE9EF22-76CE-45AD-9EA3-998D1082B0AB}</c15:txfldGUID>
-                      <c15:f>calcs!$AG$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>DI</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AH$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>MI</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{537B51C4-AD46-4EC9-9520-54730F530940}</c15:txfldGUID>
-                      <c15:f>calcs!$AH$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>MI</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7040,43 +7041,43 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>#N/A</c:v>
@@ -7165,43 +7166,43 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>13</c:v>
@@ -7266,11 +7267,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="300918792"/>
-        <c:axId val="300914480"/>
+        <c:axId val="342401968"/>
+        <c:axId val="342402360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="300918792"/>
+        <c:axId val="342401968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7293,14 +7294,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="300914480"/>
+        <c:crossAx val="342402360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="300914480"/>
+        <c:axId val="342402360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7312,7 +7313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="300918792"/>
+        <c:crossAx val="342401968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7347,7 +7348,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="FensterOffset" horiz="1" max="100" noThreeD="1" page="7" val="42"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="FensterOffset" horiz="1" max="100" noThreeD="1" page="7" val="29"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7433,8 +7434,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Aktivitäten" displayName="Aktivitäten" ref="B22:F35" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B22:F35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Aktivitäten" displayName="Aktivitäten" ref="B22:F34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B22:F34"/>
   <sortState ref="C20:F25">
     <sortCondition ref="D19:D25"/>
   </sortState>
@@ -7443,13 +7444,13 @@
       <calculatedColumnFormula>N(B22)+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" name="AKTIVITÄT" dataDxfId="3"/>
-    <tableColumn id="2" name="ANFANG" dataDxfId="0">
+    <tableColumn id="2" name="ANFANG" dataDxfId="2">
       <calculatedColumnFormula>D22+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ENDE" dataDxfId="2">
+    <tableColumn id="3" name="ENDE" dataDxfId="1">
       <calculatedColumnFormula>Aktivitäten[[#This Row],[ANFANG]]+2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="NOTIZEN" dataDxfId="1"/>
+    <tableColumn id="4" name="NOTIZEN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Project Timeline" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -7691,10 +7692,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7867,7 +7868,7 @@
     </row>
     <row r="29" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16">
-        <f t="shared" ref="B29:B32" si="1">N(B28)+1</f>
+        <f t="shared" ref="B29:B34" si="1">N(B28)+1</f>
         <v>7</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -7939,7 +7940,7 @@
     </row>
     <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16">
-        <f>N(B32)+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -7955,33 +7956,17 @@
     </row>
     <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16">
-        <f>N(B33)+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="20">
-        <f>D33+10</f>
-        <v>42112</v>
-      </c>
-      <c r="E34" s="20">
-        <f>Aktivitäten[[#This Row],[ANFANG]]+2</f>
-        <v>42114</v>
-      </c>
+      <c r="C34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="15">
+        <v>42145</v>
+      </c>
+      <c r="E34" s="15"/>
       <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="16">
-        <f>N(B33)+1</f>
-        <v>12</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="15">
-        <v>42145</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="14"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -8055,7 +8040,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>42116</v>
+        <v>42100</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -8088,7 +8073,7 @@
       </c>
       <c r="D9">
         <f>SUMPRODUCT( ((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)) )</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" t="e">
         <f>NA()</f>
@@ -8107,7 +8092,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11">
         <f>D10-MIN(D10,D9)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" t="e">
         <f>NA()</f>
@@ -8138,7 +8123,7 @@
       <c r="C15" s="2"/>
       <c r="E15">
         <f t="array" ref="E15">INDEX(Aktivitäten[Id],MATCH(1, ((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" t="e">
         <f t="shared" ref="F15:F23" ca="1" si="0">OFFSET(E15,-$D$11,)</f>
@@ -8149,72 +8134,72 @@
       <c r="C16" s="2"/>
       <c r="E16">
         <f t="array" ref="E16">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E15)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>9</v>
-      </c>
-      <c r="F16" t="e">
+        <v>5</v>
+      </c>
+      <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="E17">
         <f t="array" ref="E17">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E16)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>10</v>
-      </c>
-      <c r="F17" t="e">
+        <v>6</v>
+      </c>
+      <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E18">
         <f t="array" ref="E18">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E17)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>11</v>
-      </c>
-      <c r="F18" t="e">
+        <v>7</v>
+      </c>
+      <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E19">
         <f t="array" ref="E19">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E18)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="E20" t="e">
+      <c r="E20">
         <f t="array" ref="E20">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E19)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="E21" t="e">
+      <c r="E21">
         <f t="array" ref="E21">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E20)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="E22" t="e">
+      <c r="E22">
         <f t="array" ref="E22">INDEX(Aktivitäten[Id],MATCH(1, (Aktivitäten[Id]&gt;E21)*((Aktivitäten[ANFANG]&gt;=StartDatumFenster)+(Aktivitäten[ENDE]&gt;=StartDatumFenster)&gt;0)*(Aktivitäten[ANFANG]&lt;=(StartDatumFenster+FensterTage-1)), 0))</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
@@ -8224,7 +8209,7 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
@@ -8233,7 +8218,7 @@
       </c>
       <c r="D25" s="1">
         <f>Startdatum+FensterOffset</f>
-        <v>42094</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
@@ -8241,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
@@ -8276,127 +8261,127 @@
       </c>
       <c r="E31" s="1">
         <f>StartDatumFenster</f>
-        <v>42094</v>
+        <v>42081</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ref="F31:AI31" si="1">E31+1</f>
-        <v>42095</v>
+        <v>42082</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>42096</v>
+        <v>42083</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>42097</v>
+        <v>42084</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>42098</v>
+        <v>42085</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="1"/>
-        <v>42099</v>
+        <v>42086</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>42100</v>
+        <v>42087</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="1"/>
-        <v>42101</v>
+        <v>42088</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>42102</v>
+        <v>42089</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="1"/>
-        <v>42103</v>
+        <v>42090</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="1"/>
-        <v>42104</v>
+        <v>42091</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="1"/>
-        <v>42105</v>
+        <v>42092</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="1"/>
-        <v>42106</v>
+        <v>42093</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="1"/>
-        <v>42107</v>
+        <v>42094</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="1"/>
-        <v>42108</v>
+        <v>42095</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="1"/>
-        <v>42109</v>
+        <v>42096</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="1"/>
-        <v>42110</v>
+        <v>42097</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="1"/>
-        <v>42111</v>
+        <v>42098</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="1"/>
-        <v>42112</v>
+        <v>42099</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="1"/>
-        <v>42113</v>
+        <v>42100</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="1"/>
-        <v>42114</v>
+        <v>42101</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="1"/>
-        <v>42115</v>
+        <v>42102</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="1"/>
-        <v>42116</v>
+        <v>42103</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="1"/>
-        <v>42117</v>
+        <v>42104</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>42118</v>
+        <v>42105</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="1"/>
-        <v>42119</v>
+        <v>42106</v>
       </c>
       <c r="AE31" s="1">
         <f t="shared" si="1"/>
-        <v>42120</v>
+        <v>42107</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="1"/>
-        <v>42121</v>
+        <v>42108</v>
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="1"/>
-        <v>42122</v>
+        <v>42109</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" si="1"/>
-        <v>42123</v>
+        <v>42110</v>
       </c>
       <c r="AI31" s="1">
         <f t="shared" si="1"/>
-        <v>42124</v>
+        <v>42111</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
@@ -8547,17 +8532,17 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" t="e">
+      <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" t="e">
+        <v>4</v>
+      </c>
+      <c r="D33" t="str">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C33,Aktivitäten[Id],0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E33" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
+        <v>UseCase Beschrieb</v>
+      </c>
+      <c r="E33">
+        <f ca="1">Rasterberechnung</f>
+        <v>10.3</v>
       </c>
       <c r="F33" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -8688,45 +8673,45 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" t="e">
+      <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D34" t="e">
+        <v>5</v>
+      </c>
+      <c r="D34" t="str">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C34,Aktivitäten[Id],0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E34" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F34" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G34" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H34" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I34" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J34" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K34" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L34" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
+        <v>UseCase Diagramm</v>
+      </c>
+      <c r="E34">
+        <f ca="1">Rasterberechnung</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F34">
+        <f ca="1">Rasterberechnung</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G34">
+        <f ca="1">Rasterberechnung</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H34">
+        <f ca="1">Rasterberechnung</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I34">
+        <f ca="1">Rasterberechnung</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J34">
+        <f ca="1">Rasterberechnung</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K34">
+        <f ca="1">Rasterberechnung</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L34">
+        <f ca="1">Rasterberechnung</f>
+        <v>9.3000000000000007</v>
       </c>
       <c r="M34" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -8829,45 +8814,45 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" t="e">
+      <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D35" t="e">
+        <v>6</v>
+      </c>
+      <c r="D35" t="str">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C35,Aktivitäten[Id],0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E35" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F35" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G35" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H35" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I35" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J35" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K35" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L35" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
+        <v>Aktivitätsdiagramme</v>
+      </c>
+      <c r="E35">
+        <f ca="1">Rasterberechnung</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F35">
+        <f ca="1">Rasterberechnung</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G35">
+        <f ca="1">Rasterberechnung</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H35">
+        <f ca="1">Rasterberechnung</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I35">
+        <f ca="1">Rasterberechnung</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J35">
+        <f ca="1">Rasterberechnung</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K35">
+        <f ca="1">Rasterberechnung</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L35">
+        <f ca="1">Rasterberechnung</f>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M35" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -8972,47 +8957,47 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="str">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C36,Aktivitäten[Id],0))</f>
-        <v>GUI Entwerfen</v>
+        <v>ERD Erstellen</v>
       </c>
       <c r="E36">
         <f ca="1">Rasterberechnung</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="F36">
-        <f ca="1">Rasterberechnung</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="G36">
-        <f ca="1">Rasterberechnung</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="H36">
-        <f ca="1">Rasterberechnung</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="I36">
-        <f ca="1">Rasterberechnung</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="J36">
-        <f ca="1">Rasterberechnung</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="K36">
-        <f ca="1">Rasterberechnung</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="L36">
-        <f ca="1">Rasterberechnung</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="M36">
-        <f ca="1">Rasterberechnung</f>
-        <v>7.3000000000000007</v>
+      <c r="F36" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G36" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H36" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I36" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J36" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K36" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L36" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M36" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
       </c>
       <c r="N36" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9113,99 +9098,99 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" t="str">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C37,Aktivitäten[Id],0))</f>
-        <v>Doku Aktuallisieren</v>
+        <v>GUI Entwerfen</v>
       </c>
       <c r="E37" t="e">
         <f ca="1">Rasterberechnung</f>
         <v>#N/A</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K37" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L37">
         <f ca="1">Rasterberechnung</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="G37">
+      <c r="M37">
         <f ca="1">Rasterberechnung</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="H37">
+      <c r="N37">
         <f ca="1">Rasterberechnung</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="I37">
+      <c r="O37">
         <f ca="1">Rasterberechnung</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="J37">
+      <c r="P37">
         <f ca="1">Rasterberechnung</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="K37">
+      <c r="Q37">
         <f ca="1">Rasterberechnung</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="L37">
+      <c r="R37">
         <f ca="1">Rasterberechnung</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="M37">
+      <c r="S37">
         <f ca="1">Rasterberechnung</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="N37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z37" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
+      <c r="T37">
+        <f ca="1">Rasterberechnung</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="U37">
+        <f ca="1">Rasterberechnung</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="V37">
+        <f ca="1">Rasterberechnung</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="W37">
+        <f ca="1">Rasterberechnung</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="X37">
+        <f ca="1">Rasterberechnung</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="Y37">
+        <f ca="1">Rasterberechnung</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="Z37">
+        <f ca="1">Rasterberechnung</f>
+        <v>6.3000000000000007</v>
       </c>
       <c r="AA37" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9254,11 +9239,11 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" t="str">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C38,Aktivitäten[Id],0))</f>
-        <v>GUI in SceneBuilder</v>
+        <v>Doku Aktuallisieren</v>
       </c>
       <c r="E38" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9292,61 +9277,61 @@
         <f ca="1">Rasterberechnung</f>
         <v>#N/A</v>
       </c>
-      <c r="M38">
+      <c r="M38" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N38" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O38" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P38" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q38" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R38" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S38">
         <f ca="1">Rasterberechnung</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="N38">
+      <c r="T38">
         <f ca="1">Rasterberechnung</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="O38">
+      <c r="U38">
         <f ca="1">Rasterberechnung</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="P38">
+      <c r="V38">
         <f ca="1">Rasterberechnung</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="Q38">
+      <c r="W38">
         <f ca="1">Rasterberechnung</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="R38">
+      <c r="X38">
         <f ca="1">Rasterberechnung</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="S38">
+      <c r="Y38">
         <f ca="1">Rasterberechnung</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="T38">
+      <c r="Z38">
         <f ca="1">Rasterberechnung</f>
         <v>5.3000000000000007</v>
-      </c>
-      <c r="U38" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V38" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W38" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X38" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y38" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z38" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
       </c>
       <c r="AA38" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9395,11 +9380,11 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" t="str">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C39,Aktivitäten[Id],0))</f>
-        <v>Model in Java implementieren</v>
+        <v>GUI in SceneBuilder</v>
       </c>
       <c r="E39" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9433,89 +9418,89 @@
         <f ca="1">Rasterberechnung</f>
         <v>#N/A</v>
       </c>
-      <c r="M39">
+      <c r="M39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y39" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z39">
         <f ca="1">Rasterberechnung</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="N39">
+      <c r="AA39">
         <f ca="1">Rasterberechnung</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="O39">
+      <c r="AB39">
         <f ca="1">Rasterberechnung</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="P39">
+      <c r="AC39">
         <f ca="1">Rasterberechnung</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="Q39">
+      <c r="AD39">
         <f ca="1">Rasterberechnung</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="R39">
+      <c r="AE39">
         <f ca="1">Rasterberechnung</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="S39">
+      <c r="AF39">
         <f ca="1">Rasterberechnung</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="T39">
+      <c r="AG39">
         <f ca="1">Rasterberechnung</f>
         <v>4.3000000000000007</v>
-      </c>
-      <c r="U39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG39" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
       </c>
       <c r="AH39" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9536,11 +9521,11 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="D40" t="str">
         <f ca="1">INDEX(Aktivitäten[AKTIVITÄT],MATCH($C40,Aktivitäten[Id],0))</f>
-        <v>0</v>
+        <v>Model in Java implementieren</v>
       </c>
       <c r="E40" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9614,49 +9599,49 @@
         <f ca="1">Rasterberechnung</f>
         <v>#N/A</v>
       </c>
-      <c r="W40">
+      <c r="W40" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X40" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y40" t="e">
+        <f ca="1">Rasterberechnung</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z40">
         <f ca="1">Rasterberechnung</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="X40">
+      <c r="AA40">
         <f ca="1">Rasterberechnung</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="Y40">
+      <c r="AB40">
         <f ca="1">Rasterberechnung</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="Z40" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA40" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB40" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC40" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD40" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE40" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF40" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG40" t="e">
-        <f ca="1">Rasterberechnung</f>
-        <v>#N/A</v>
+      <c r="AC40">
+        <f ca="1">Rasterberechnung</f>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="AD40">
+        <f ca="1">Rasterberechnung</f>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="AE40">
+        <f ca="1">Rasterberechnung</f>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="AF40">
+        <f ca="1">Rasterberechnung</f>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="AG40">
+        <f ca="1">Rasterberechnung</f>
+        <v>3.3000000000000007</v>
       </c>
       <c r="AH40" t="e">
         <f ca="1">Rasterberechnung</f>
@@ -9670,123 +9655,123 @@
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E43" s="1">
         <f>E31</f>
-        <v>42094</v>
+        <v>42081</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ref="F43:AH43" si="4">F31</f>
-        <v>42095</v>
+        <v>42082</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="4"/>
-        <v>42096</v>
+        <v>42083</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="4"/>
-        <v>42097</v>
+        <v>42084</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="4"/>
-        <v>42098</v>
+        <v>42085</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>42099</v>
+        <v>42086</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="4"/>
-        <v>42100</v>
+        <v>42087</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>42101</v>
+        <v>42088</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="4"/>
-        <v>42102</v>
+        <v>42089</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="4"/>
-        <v>42103</v>
+        <v>42090</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="4"/>
-        <v>42104</v>
+        <v>42091</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="4"/>
-        <v>42105</v>
+        <v>42092</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="4"/>
-        <v>42106</v>
+        <v>42093</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="4"/>
-        <v>42107</v>
+        <v>42094</v>
       </c>
       <c r="S43" s="1">
         <f t="shared" si="4"/>
-        <v>42108</v>
+        <v>42095</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" si="4"/>
-        <v>42109</v>
+        <v>42096</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="4"/>
-        <v>42110</v>
+        <v>42097</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="4"/>
-        <v>42111</v>
+        <v>42098</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="4"/>
-        <v>42112</v>
+        <v>42099</v>
       </c>
       <c r="X43" s="1">
         <f t="shared" si="4"/>
-        <v>42113</v>
+        <v>42100</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="4"/>
-        <v>42114</v>
+        <v>42101</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="4"/>
-        <v>42115</v>
+        <v>42102</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="4"/>
-        <v>42116</v>
+        <v>42103</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="4"/>
-        <v>42117</v>
+        <v>42104</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="4"/>
-        <v>42118</v>
+        <v>42105</v>
       </c>
       <c r="AD43" s="1">
         <f t="shared" si="4"/>
-        <v>42119</v>
+        <v>42106</v>
       </c>
       <c r="AE43" s="1">
         <f t="shared" si="4"/>
-        <v>42120</v>
+        <v>42107</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="4"/>
-        <v>42121</v>
+        <v>42108</v>
       </c>
       <c r="AG43" s="1">
         <f t="shared" si="4"/>
-        <v>42122</v>
+        <v>42109</v>
       </c>
       <c r="AH43" s="1">
         <f t="shared" si="4"/>
-        <v>42123</v>
+        <v>42110</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
@@ -9920,17 +9905,17 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C45" t="e">
+      <c r="C45">
         <f t="shared" ref="C45:C52" ca="1" si="6">C33</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D45" t="e">
+        <v>4</v>
+      </c>
+      <c r="D45" t="str">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C45,Aktivitäten[Id],0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E45" t="e">
+        <v>USECASE BESCHRIEB</v>
+      </c>
+      <c r="E45">
         <f t="shared" ref="E45:AH45" ca="1" si="7">IF(ISERROR(F33),E33,NA())</f>
-        <v>#N/A</v>
+        <v>10.3</v>
       </c>
       <c r="F45" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -10050,13 +10035,13 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C46" t="e">
+      <c r="C46">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D46" t="e">
+        <v>5</v>
+      </c>
+      <c r="D46" t="str">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C46,Aktivitäten[Id],0)))</f>
-        <v>#N/A</v>
+        <v>USECASE DIAGRAMM</v>
       </c>
       <c r="E46" t="e">
         <f t="shared" ref="E46:AH46" ca="1" si="8">IF(ISERROR(F34),E34,NA())</f>
@@ -10086,9 +10071,9 @@
         <f t="shared" ca="1" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="L46" t="e">
+      <c r="L46">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="M46" t="e">
         <f t="shared" ca="1" si="8"/>
@@ -10180,13 +10165,13 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C47" t="e">
+      <c r="C47">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D47" t="e">
+        <v>6</v>
+      </c>
+      <c r="D47" t="str">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C47,Aktivitäten[Id],0)))</f>
-        <v>#N/A</v>
+        <v>AKTIVITÄTSDIAGRAMME</v>
       </c>
       <c r="E47" t="e">
         <f t="shared" ref="E47:AH47" ca="1" si="9">IF(ISERROR(F35),E35,NA())</f>
@@ -10216,9 +10201,9 @@
         <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="L47" t="e">
+      <c r="L47">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M47" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -10312,15 +10297,15 @@
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C48">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" t="str">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C48,Aktivitäten[Id],0)))</f>
-        <v>GUI ENTWERFEN</v>
-      </c>
-      <c r="E48" t="e">
+        <v>ERD ERSTELLEN</v>
+      </c>
+      <c r="E48">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
-        <v>#N/A</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="F48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -10350,9 +10335,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="M48">
+      <c r="M48" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="N48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -10442,11 +10427,11 @@
     <row r="49" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C49">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" t="str">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C49,Aktivitäten[Id],0)))</f>
-        <v>DOKU AKTUALLISIEREN</v>
+        <v>GUI ENTWERFEN</v>
       </c>
       <c r="E49" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -10480,61 +10465,61 @@
         <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="M49">
+      <c r="M49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y49" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z49">
         <f t="shared" ca="1" si="11"/>
         <v>6.3000000000000007</v>
-      </c>
-      <c r="N49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z49" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
       </c>
       <c r="AA49" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -10572,11 +10557,11 @@
     <row r="50" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C50">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" t="str">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C50,Aktivitäten[Id],0)))</f>
-        <v>GUI IN SCENEBUILDER</v>
+        <v>DOKU AKTUALLISIEREN</v>
       </c>
       <c r="E50" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -10638,33 +10623,33 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="T50">
+      <c r="T50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z50">
         <f t="shared" ca="1" si="12"/>
         <v>5.3000000000000007</v>
-      </c>
-      <c r="U50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
       </c>
       <c r="AA50" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -10702,11 +10687,11 @@
     <row r="51" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C51">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" t="str">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C51,Aktivitäten[Id],0)))</f>
-        <v>MODEL IN JAVA IMPLEMENTIEREN</v>
+        <v>GUI IN SCENEBUILDER</v>
       </c>
       <c r="E51" t="e">
         <f t="shared" ref="E51:AH51" ca="1" si="13">IF(ISERROR(F39),E39,NA())</f>
@@ -10768,61 +10753,61 @@
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="T51">
+      <c r="T51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG51">
         <f t="shared" ca="1" si="13"/>
         <v>4.3000000000000007</v>
-      </c>
-      <c r="U51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
       </c>
       <c r="AH51" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -10832,11 +10817,11 @@
     <row r="52" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C52">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" t="str">
         <f ca="1">UPPER(INDEX(Aktivitäten[AKTIVITÄT],MATCH($C52,Aktivitäten[Id],0)))</f>
-        <v/>
+        <v>MODEL IN JAVA IMPLEMENTIEREN</v>
       </c>
       <c r="E52" t="e">
         <f t="shared" ref="E52:AH52" ca="1" si="14">IF(ISERROR(F40),E40,NA())</f>
@@ -10918,41 +10903,41 @@
         <f t="shared" ca="1" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="Y52">
+      <c r="Y52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG52">
         <f t="shared" ca="1" si="14"/>
         <v>3.3000000000000007</v>
-      </c>
-      <c r="Z52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
       </c>
       <c r="AH52" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -10962,123 +10947,123 @@
     <row r="55" spans="3:34" x14ac:dyDescent="0.3">
       <c r="E55" s="1">
         <f>E31</f>
-        <v>42094</v>
+        <v>42081</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ref="F55:AH55" si="15">F31</f>
-        <v>42095</v>
+        <v>42082</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="15"/>
-        <v>42096</v>
+        <v>42083</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="15"/>
-        <v>42097</v>
+        <v>42084</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="15"/>
-        <v>42098</v>
+        <v>42085</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="15"/>
-        <v>42099</v>
+        <v>42086</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="15"/>
-        <v>42100</v>
+        <v>42087</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="15"/>
-        <v>42101</v>
+        <v>42088</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="15"/>
-        <v>42102</v>
+        <v>42089</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="15"/>
-        <v>42103</v>
+        <v>42090</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="15"/>
-        <v>42104</v>
+        <v>42091</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="15"/>
-        <v>42105</v>
+        <v>42092</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="15"/>
-        <v>42106</v>
+        <v>42093</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="15"/>
-        <v>42107</v>
+        <v>42094</v>
       </c>
       <c r="S55" s="1">
         <f t="shared" si="15"/>
-        <v>42108</v>
+        <v>42095</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" si="15"/>
-        <v>42109</v>
+        <v>42096</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="15"/>
-        <v>42110</v>
+        <v>42097</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="15"/>
-        <v>42111</v>
+        <v>42098</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="15"/>
-        <v>42112</v>
+        <v>42099</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" si="15"/>
-        <v>42113</v>
+        <v>42100</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" si="15"/>
-        <v>42114</v>
+        <v>42101</v>
       </c>
       <c r="Z55" s="1">
         <f t="shared" si="15"/>
-        <v>42115</v>
+        <v>42102</v>
       </c>
       <c r="AA55" s="1">
         <f t="shared" si="15"/>
-        <v>42116</v>
+        <v>42103</v>
       </c>
       <c r="AB55" s="1">
         <f t="shared" si="15"/>
-        <v>42117</v>
+        <v>42104</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="15"/>
-        <v>42118</v>
+        <v>42105</v>
       </c>
       <c r="AD55" s="1">
         <f t="shared" si="15"/>
-        <v>42119</v>
+        <v>42106</v>
       </c>
       <c r="AE55" s="1">
         <f t="shared" si="15"/>
-        <v>42120</v>
+        <v>42107</v>
       </c>
       <c r="AF55" s="1">
         <f t="shared" si="15"/>
-        <v>42121</v>
+        <v>42108</v>
       </c>
       <c r="AG55" s="1">
         <f t="shared" si="15"/>
-        <v>42122</v>
+        <v>42109</v>
       </c>
       <c r="AH55" s="1">
         <f t="shared" si="15"/>
-        <v>42123</v>
+        <v>42110</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.3">
@@ -11161,9 +11146,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="X56" t="e">
+      <c r="X56">
         <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="Y56" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -11173,9 +11158,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="AA56">
+      <c r="AA56" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="AB56" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -11215,57 +11200,57 @@
         <f>IF(MEDIAN($D58,E$55,EOMONTH($D58,0))=E$55,0.5,NA())</f>
         <v>0.5</v>
       </c>
-      <c r="F58" t="e">
+      <c r="F58">
         <f t="shared" ref="F58:AH58" si="17">IF(MEDIAN($D58,F$55,EOMONTH($D58,0))=F$55,0.5,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="G58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="H58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="M58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="N58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="Q58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="R58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="S58" t="e">
         <f t="shared" si="17"/>
@@ -11341,57 +11326,57 @@
         <f>E58+12.5</f>
         <v>13</v>
       </c>
-      <c r="F59" t="e">
+      <c r="F59">
         <f t="shared" ref="F59:AH59" si="18">F58+12.5</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G59" t="e">
+        <v>13</v>
+      </c>
+      <c r="G59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H59" t="e">
+        <v>13</v>
+      </c>
+      <c r="H59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I59" t="e">
+        <v>13</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J59" t="e">
+        <v>13</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K59" t="e">
+        <v>13</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L59" t="e">
+        <v>13</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M59" t="e">
+        <v>13</v>
+      </c>
+      <c r="M59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N59" t="e">
+        <v>13</v>
+      </c>
+      <c r="N59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O59" t="e">
+        <v>13</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P59" t="e">
+        <v>13</v>
+      </c>
+      <c r="P59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q59" t="e">
+        <v>13</v>
+      </c>
+      <c r="Q59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R59" t="e">
+        <v>13</v>
+      </c>
+      <c r="R59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="S59" t="e">
         <f t="shared" si="18"/>
@@ -11470,57 +11455,57 @@
         <f>IF(MEDIAN($D61,E$55,EOMONTH($D61,0))=E$55,0.5,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="e">
         <f t="shared" ref="F61:AH61" si="19">IF(MEDIAN($D61,F$55,EOMONTH($D61,0))=F$55,0.5,NA())</f>
-        <v>0.5</v>
-      </c>
-      <c r="G61">
+        <v>#N/A</v>
+      </c>
+      <c r="G61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="H61">
+        <v>#N/A</v>
+      </c>
+      <c r="H61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="I61">
+        <v>#N/A</v>
+      </c>
+      <c r="I61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="J61">
+        <v>#N/A</v>
+      </c>
+      <c r="J61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="K61">
+        <v>#N/A</v>
+      </c>
+      <c r="K61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="L61">
+        <v>#N/A</v>
+      </c>
+      <c r="L61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="M61">
+        <v>#N/A</v>
+      </c>
+      <c r="M61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="N61">
+        <v>#N/A</v>
+      </c>
+      <c r="N61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="O61">
+        <v>#N/A</v>
+      </c>
+      <c r="O61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="P61">
+        <v>#N/A</v>
+      </c>
+      <c r="P61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q61">
+        <v>#N/A</v>
+      </c>
+      <c r="Q61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="R61">
+        <v>#N/A</v>
+      </c>
+      <c r="R61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="S61">
         <f t="shared" si="19"/>
@@ -11596,57 +11581,57 @@
         <f>E61+12.5</f>
         <v>#N/A</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="e">
         <f t="shared" ref="F62:AH62" si="20">F61+12.5</f>
-        <v>13</v>
-      </c>
-      <c r="G62">
+        <v>#N/A</v>
+      </c>
+      <c r="G62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="H62">
+        <v>#N/A</v>
+      </c>
+      <c r="H62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="I62">
+        <v>#N/A</v>
+      </c>
+      <c r="I62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="J62">
+        <v>#N/A</v>
+      </c>
+      <c r="J62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="K62">
+        <v>#N/A</v>
+      </c>
+      <c r="K62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="L62">
+        <v>#N/A</v>
+      </c>
+      <c r="L62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="M62">
+        <v>#N/A</v>
+      </c>
+      <c r="M62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="N62">
+        <v>#N/A</v>
+      </c>
+      <c r="N62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="O62">
+        <v>#N/A</v>
+      </c>
+      <c r="O62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="P62">
+        <v>#N/A</v>
+      </c>
+      <c r="P62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="Q62">
+        <v>#N/A</v>
+      </c>
+      <c r="Q62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="R62">
+        <v>#N/A</v>
+      </c>
+      <c r="R62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="S62">
         <f t="shared" si="20"/>
@@ -11855,61 +11840,61 @@
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T66">
         <f t="shared" si="21"/>
         <v>0.5</v>
-      </c>
-      <c r="H66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
       </c>
       <c r="U66" t="e">
         <f t="shared" si="21"/>
@@ -12095,123 +12080,123 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" ref="E70:AH70" si="23">LEFT(UPPER(TEXT(E55,"TTT")),$D70)</f>
-        <v>DI</v>
+        <v>MI</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="23"/>
-        <v>MI</v>
+        <v>DO</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="23"/>
-        <v>DO</v>
+        <v>FR</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="23"/>
-        <v>FR</v>
+        <v>SA</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="23"/>
-        <v>SA</v>
+        <v>SO</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>MO</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="23"/>
-        <v>MO</v>
+        <v>DI</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="23"/>
-        <v>DI</v>
+        <v>MI</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="23"/>
-        <v>MI</v>
+        <v>DO</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="23"/>
-        <v>DO</v>
+        <v>FR</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="23"/>
-        <v>FR</v>
+        <v>SA</v>
       </c>
       <c r="P70" t="str">
         <f t="shared" si="23"/>
-        <v>SA</v>
+        <v>SO</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>MO</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="23"/>
-        <v>MO</v>
+        <v>DI</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" si="23"/>
-        <v>DI</v>
+        <v>MI</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" si="23"/>
-        <v>MI</v>
+        <v>DO</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="23"/>
-        <v>DO</v>
+        <v>FR</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="23"/>
-        <v>FR</v>
+        <v>SA</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="23"/>
-        <v>SA</v>
+        <v>SO</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>MO</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="23"/>
-        <v>MO</v>
+        <v>DI</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" si="23"/>
-        <v>DI</v>
+        <v>MI</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="23"/>
-        <v>MI</v>
+        <v>DO</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" si="23"/>
-        <v>DO</v>
+        <v>FR</v>
       </c>
       <c r="AC70" t="str">
         <f t="shared" si="23"/>
-        <v>FR</v>
+        <v>SA</v>
       </c>
       <c r="AD70" t="str">
         <f t="shared" si="23"/>
-        <v>SA</v>
+        <v>SO</v>
       </c>
       <c r="AE70" t="str">
         <f t="shared" si="23"/>
-        <v>SO</v>
+        <v>MO</v>
       </c>
       <c r="AF70" t="str">
         <f t="shared" si="23"/>
-        <v>MO</v>
+        <v>DI</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="23"/>
-        <v>DI</v>
+        <v>MI</v>
       </c>
       <c r="AH70" t="str">
         <f t="shared" si="23"/>
-        <v>MI</v>
+        <v>DO</v>
       </c>
     </row>
     <row r="71" spans="4:34" x14ac:dyDescent="0.3">
@@ -12338,123 +12323,123 @@
     <row r="72" spans="4:34" x14ac:dyDescent="0.3">
       <c r="E72" t="str">
         <f>TEXT(E55,"TT")</f>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F72" t="str">
         <f>TEXT(F55,"TT")</f>
-        <v>01</v>
+        <v>19</v>
       </c>
       <c r="G72" t="str">
         <f>TEXT(G55,"TT")</f>
-        <v>02</v>
+        <v>20</v>
       </c>
       <c r="H72" t="str">
         <f>TEXT(H55,"TT")</f>
-        <v>03</v>
+        <v>21</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" ref="I72:AH72" si="24">TEXT(I55,"TT")</f>
-        <v>04</v>
+        <v>22</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="24"/>
-        <v>05</v>
+        <v>23</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="24"/>
-        <v>06</v>
+        <v>24</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="24"/>
-        <v>07</v>
+        <v>25</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="24"/>
-        <v>08</v>
+        <v>26</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="24"/>
-        <v>09</v>
+        <v>27</v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P72" t="str">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="R72" t="str">
         <f t="shared" si="24"/>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>01</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>02</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>03</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="24"/>
-        <v>17</v>
+        <v>04</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>05</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>06</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>07</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>08</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="24"/>
-        <v>22</v>
+        <v>09</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" si="24"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AD72" t="str">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE72" t="str">
         <f t="shared" si="24"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AH72" t="str">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
